--- a/cryptos.xlsx
+++ b/cryptos.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ether" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bitcoin" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ether" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -423,3912 +424,7864 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="n">
-        <v>43365.79166666666</v>
+        <v>43544.58333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>238.77</v>
+        <v>3998.64</v>
       </c>
       <c r="C2" t="n">
-        <v>245</v>
+        <v>4002.52</v>
       </c>
       <c r="D2" t="n">
-        <v>236.63</v>
+        <v>3993.5</v>
       </c>
       <c r="E2" t="n">
-        <v>243.51</v>
+        <v>3998</v>
       </c>
       <c r="F2" t="n">
-        <v>3090.3982</v>
+        <v>173.32162813</v>
       </c>
       <c r="G2" t="n">
-        <v>747821.75</v>
+        <v>692850.1988544359</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="n">
-        <v>43365.83333333334</v>
+        <v>43544.625</v>
       </c>
       <c r="B3" t="n">
-        <v>243.51</v>
+        <v>3998.83</v>
       </c>
       <c r="C3" t="n">
-        <v>243.51</v>
+        <v>4004.95</v>
       </c>
       <c r="D3" t="n">
-        <v>240.33</v>
+        <v>3993</v>
       </c>
       <c r="E3" t="n">
-        <v>241.73</v>
+        <v>4004.95</v>
       </c>
       <c r="F3" t="n">
-        <v>2206.2004</v>
+        <v>347.4312388</v>
       </c>
       <c r="G3" t="n">
-        <v>532718.4</v>
+        <v>1388839.437204076</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="n">
-        <v>43365.875</v>
+        <v>43544.66666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>242</v>
+        <v>4006</v>
       </c>
       <c r="C4" t="n">
-        <v>243.62</v>
+        <v>4008</v>
       </c>
       <c r="D4" t="n">
-        <v>241.25</v>
+        <v>3992</v>
       </c>
       <c r="E4" t="n">
-        <v>241.45</v>
+        <v>3998.85</v>
       </c>
       <c r="F4" t="n">
-        <v>440.08017</v>
+        <v>232.96289323</v>
       </c>
       <c r="G4" t="n">
-        <v>106604.41</v>
+        <v>931710.9592102676</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="n">
-        <v>43365.91666666666</v>
+        <v>43544.70833333334</v>
       </c>
       <c r="B5" t="n">
-        <v>241.3</v>
+        <v>3998.84</v>
       </c>
       <c r="C5" t="n">
-        <v>242.06</v>
+        <v>4021.02</v>
       </c>
       <c r="D5" t="n">
-        <v>237</v>
+        <v>3994.84</v>
       </c>
       <c r="E5" t="n">
-        <v>238.75</v>
+        <v>4002.5</v>
       </c>
       <c r="F5" t="n">
-        <v>476.35474</v>
+        <v>781.70306694</v>
       </c>
       <c r="G5" t="n">
-        <v>114115.1</v>
+        <v>3138660.617220023</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="n">
-        <v>43365.95833333334</v>
+        <v>43544.75</v>
       </c>
       <c r="B6" t="n">
-        <v>238.64</v>
+        <v>4001.56</v>
       </c>
       <c r="C6" t="n">
-        <v>240.53</v>
+        <v>4005.41</v>
       </c>
       <c r="D6" t="n">
-        <v>237.97</v>
+        <v>3992.97</v>
       </c>
       <c r="E6" t="n">
-        <v>238.99</v>
+        <v>3998.6</v>
       </c>
       <c r="F6" t="n">
-        <v>109.53777</v>
+        <v>171.73547636</v>
       </c>
       <c r="G6" t="n">
-        <v>26210.49</v>
+        <v>686796.0017522549</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="n">
-        <v>43366</v>
+        <v>43544.79166666666</v>
       </c>
       <c r="B7" t="n">
-        <v>237.98</v>
+        <v>3999.4</v>
       </c>
       <c r="C7" t="n">
-        <v>241.16</v>
+        <v>4010.29</v>
       </c>
       <c r="D7" t="n">
-        <v>237.98</v>
+        <v>3998.6</v>
       </c>
       <c r="E7" t="n">
-        <v>239.93</v>
+        <v>4006.51</v>
       </c>
       <c r="F7" t="n">
-        <v>183.4264</v>
+        <v>196.17788714</v>
       </c>
       <c r="G7" t="n">
-        <v>43989.65</v>
+        <v>785845.6679639457</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="n">
-        <v>43366.04166666666</v>
+        <v>43544.83333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>240.37</v>
+        <v>4008.3</v>
       </c>
       <c r="C8" t="n">
-        <v>240.66</v>
+        <v>4014</v>
       </c>
       <c r="D8" t="n">
-        <v>239.42</v>
+        <v>4007.4</v>
       </c>
       <c r="E8" t="n">
-        <v>239.42</v>
+        <v>4011.9</v>
       </c>
       <c r="F8" t="n">
-        <v>102.98503</v>
+        <v>151.94921633</v>
       </c>
       <c r="G8" t="n">
-        <v>24702.83</v>
+        <v>609380.1348111292</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="n">
-        <v>43366.08333333334</v>
+        <v>43544.875</v>
       </c>
       <c r="B9" t="n">
-        <v>239.58</v>
+        <v>4012.78</v>
       </c>
       <c r="C9" t="n">
-        <v>239.69</v>
+        <v>4019.92</v>
       </c>
       <c r="D9" t="n">
-        <v>237</v>
+        <v>4006.94</v>
       </c>
       <c r="E9" t="n">
-        <v>237.99</v>
+        <v>4007.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1378.3494</v>
+        <v>247.10151566</v>
       </c>
       <c r="G9" t="n">
-        <v>329020.8</v>
+        <v>991900.1420226836</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="n">
-        <v>43366.125</v>
+        <v>43544.91666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>237.99</v>
+        <v>4008.7</v>
       </c>
       <c r="C10" t="n">
-        <v>239.1</v>
+        <v>4015.5</v>
       </c>
       <c r="D10" t="n">
-        <v>237.02</v>
+        <v>4006.1</v>
       </c>
       <c r="E10" t="n">
-        <v>238.41</v>
+        <v>4008.01</v>
       </c>
       <c r="F10" t="n">
-        <v>85.94781999999999</v>
+        <v>70.69915434000001</v>
       </c>
       <c r="G10" t="n">
-        <v>20442.697</v>
+        <v>283555.250261241</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="n">
-        <v>43366.16666666666</v>
+        <v>43544.95833333334</v>
       </c>
       <c r="B11" t="n">
-        <v>238.97</v>
+        <v>4008.41</v>
       </c>
       <c r="C11" t="n">
-        <v>239.29</v>
+        <v>4050</v>
       </c>
       <c r="D11" t="n">
-        <v>238.02</v>
+        <v>4008.41</v>
       </c>
       <c r="E11" t="n">
-        <v>239.29</v>
+        <v>4031.55</v>
       </c>
       <c r="F11" t="n">
-        <v>99.318184</v>
+        <v>430.68732935</v>
       </c>
       <c r="G11" t="n">
-        <v>23697.107</v>
+        <v>1735919.692656357</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="n">
-        <v>43366.20833333334</v>
+        <v>43545</v>
       </c>
       <c r="B12" t="n">
-        <v>238.87</v>
+        <v>4031.9</v>
       </c>
       <c r="C12" t="n">
-        <v>240.4</v>
+        <v>4035.8</v>
       </c>
       <c r="D12" t="n">
-        <v>238.35</v>
+        <v>4022.76</v>
       </c>
       <c r="E12" t="n">
-        <v>239.28</v>
+        <v>4031.59</v>
       </c>
       <c r="F12" t="n">
-        <v>315.88165</v>
+        <v>161.00329214</v>
       </c>
       <c r="G12" t="n">
-        <v>75752.34</v>
+        <v>648651.3453666096</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="n">
-        <v>43366.25</v>
+        <v>43545.04166666666</v>
       </c>
       <c r="B13" t="n">
-        <v>239.76</v>
+        <v>4033.7</v>
       </c>
       <c r="C13" t="n">
-        <v>242.21</v>
+        <v>4044.21</v>
       </c>
       <c r="D13" t="n">
-        <v>238.37</v>
+        <v>4031.59</v>
       </c>
       <c r="E13" t="n">
-        <v>241.71</v>
+        <v>4041.01</v>
       </c>
       <c r="F13" t="n">
-        <v>148.63547</v>
+        <v>215.95334942</v>
       </c>
       <c r="G13" t="n">
-        <v>35597.83</v>
+        <v>871943.1924159772</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="n">
-        <v>43366.29166666666</v>
+        <v>43545.08333333334</v>
       </c>
       <c r="B14" t="n">
-        <v>240.11</v>
+        <v>4040.69</v>
       </c>
       <c r="C14" t="n">
-        <v>240.49</v>
+        <v>4042.88</v>
       </c>
       <c r="D14" t="n">
-        <v>238.86</v>
+        <v>4011.63</v>
       </c>
       <c r="E14" t="n">
-        <v>238.86</v>
+        <v>4026.42</v>
       </c>
       <c r="F14" t="n">
-        <v>114.03896</v>
+        <v>207.84378164</v>
       </c>
       <c r="G14" t="n">
-        <v>27305.06</v>
+        <v>836309.2624013647</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="n">
-        <v>43366.33333333334</v>
+        <v>43545.125</v>
       </c>
       <c r="B15" t="n">
-        <v>239.02</v>
+        <v>4026.42</v>
       </c>
       <c r="C15" t="n">
-        <v>240.33</v>
+        <v>4035.83</v>
       </c>
       <c r="D15" t="n">
-        <v>238.7</v>
+        <v>4025.32</v>
       </c>
       <c r="E15" t="n">
-        <v>240.33</v>
+        <v>4027.12</v>
       </c>
       <c r="F15" t="n">
-        <v>45.71963</v>
+        <v>191.30134223</v>
       </c>
       <c r="G15" t="n">
-        <v>10958.893</v>
+        <v>771011.1607642383</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="n">
-        <v>43366.375</v>
+        <v>43545.16666666666</v>
       </c>
       <c r="B16" t="n">
-        <v>240.09</v>
+        <v>4027.12</v>
       </c>
       <c r="C16" t="n">
-        <v>244.98</v>
+        <v>4031.04</v>
       </c>
       <c r="D16" t="n">
-        <v>237.87</v>
+        <v>4025.99</v>
       </c>
       <c r="E16" t="n">
-        <v>243.18</v>
+        <v>4030.41</v>
       </c>
       <c r="F16" t="n">
-        <v>2397.6138</v>
+        <v>122.62577609</v>
       </c>
       <c r="G16" t="n">
-        <v>576029</v>
+        <v>493956.1288467071</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="n">
-        <v>43366.41666666666</v>
+        <v>43545.20833333334</v>
       </c>
       <c r="B17" t="n">
-        <v>242.61</v>
+        <v>4029.58</v>
       </c>
       <c r="C17" t="n">
-        <v>248.63</v>
+        <v>4030.77</v>
       </c>
       <c r="D17" t="n">
-        <v>242.54</v>
+        <v>4024.64</v>
       </c>
       <c r="E17" t="n">
-        <v>247</v>
+        <v>4026.87</v>
       </c>
       <c r="F17" t="n">
-        <v>2156.5762</v>
+        <v>99.56607166000001</v>
       </c>
       <c r="G17" t="n">
-        <v>531650</v>
+        <v>401018.605344998</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="n">
-        <v>43366.45833333334</v>
+        <v>43545.25</v>
       </c>
       <c r="B18" t="n">
-        <v>246.67</v>
+        <v>4028.08</v>
       </c>
       <c r="C18" t="n">
-        <v>246.7</v>
+        <v>4028.65</v>
       </c>
       <c r="D18" t="n">
-        <v>245</v>
+        <v>4017.05</v>
       </c>
       <c r="E18" t="n">
-        <v>245.9</v>
+        <v>4021.75</v>
       </c>
       <c r="F18" t="n">
-        <v>368.63135</v>
+        <v>138.67936907</v>
       </c>
       <c r="G18" t="n">
-        <v>90595.00999999999</v>
+        <v>557642.7922627971</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="n">
-        <v>43366.5</v>
+        <v>43545.29166666666</v>
       </c>
       <c r="B19" t="n">
-        <v>245.39</v>
+        <v>4020.8</v>
       </c>
       <c r="C19" t="n">
-        <v>249.44</v>
+        <v>4028.47</v>
       </c>
       <c r="D19" t="n">
-        <v>245.39</v>
+        <v>4020.8</v>
       </c>
       <c r="E19" t="n">
-        <v>245.84</v>
+        <v>4027.34</v>
       </c>
       <c r="F19" t="n">
-        <v>625.5691</v>
+        <v>43.88441057</v>
       </c>
       <c r="G19" t="n">
-        <v>154655.14</v>
+        <v>176638.9372874634</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="n">
-        <v>43366.54166666666</v>
+        <v>43545.33333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>246</v>
+        <v>4026.92</v>
       </c>
       <c r="C20" t="n">
-        <v>246.51</v>
+        <v>4041.28</v>
       </c>
       <c r="D20" t="n">
-        <v>243.23</v>
+        <v>4024.05</v>
       </c>
       <c r="E20" t="n">
-        <v>245</v>
+        <v>4035.32</v>
       </c>
       <c r="F20" t="n">
-        <v>829.61884</v>
+        <v>228.63672128</v>
       </c>
       <c r="G20" t="n">
-        <v>203360.22</v>
+        <v>921586.5652195729</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="n">
-        <v>43366.58333333334</v>
+        <v>43545.375</v>
       </c>
       <c r="B21" t="n">
-        <v>245</v>
+        <v>4035.9</v>
       </c>
       <c r="C21" t="n">
-        <v>245</v>
+        <v>4036.96</v>
       </c>
       <c r="D21" t="n">
-        <v>244</v>
+        <v>4029.44</v>
       </c>
       <c r="E21" t="n">
-        <v>244.61</v>
+        <v>4032.3</v>
       </c>
       <c r="F21" t="n">
-        <v>1085.0328</v>
+        <v>132.65199772</v>
       </c>
       <c r="G21" t="n">
-        <v>265687.44</v>
+        <v>534849.0399560001</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="n">
-        <v>43366.625</v>
+        <v>43545.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>244.62</v>
+        <v>4032.55</v>
       </c>
       <c r="C22" t="n">
-        <v>245.99</v>
+        <v>4034.08</v>
       </c>
       <c r="D22" t="n">
-        <v>237.94</v>
+        <v>4028.5</v>
       </c>
       <c r="E22" t="n">
-        <v>242</v>
+        <v>4031.28</v>
       </c>
       <c r="F22" t="n">
-        <v>1829.3263</v>
+        <v>129.16798037</v>
       </c>
       <c r="G22" t="n">
-        <v>442317.7</v>
+        <v>520678.0852252259</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="n">
-        <v>43366.66666666666</v>
+        <v>43545.45833333334</v>
       </c>
       <c r="B23" t="n">
-        <v>241</v>
+        <v>4030.55</v>
       </c>
       <c r="C23" t="n">
-        <v>242.63</v>
+        <v>4033.47</v>
       </c>
       <c r="D23" t="n">
-        <v>240</v>
+        <v>4024.22</v>
       </c>
       <c r="E23" t="n">
-        <v>241.69</v>
+        <v>4026.25</v>
       </c>
       <c r="F23" t="n">
-        <v>656.6674</v>
+        <v>174.58875335</v>
       </c>
       <c r="G23" t="n">
-        <v>158163.12</v>
+        <v>703647.212325654</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="n">
-        <v>43366.70833333334</v>
+        <v>43545.5</v>
       </c>
       <c r="B24" t="n">
-        <v>241.2</v>
+        <v>4026.25</v>
       </c>
       <c r="C24" t="n">
-        <v>244</v>
+        <v>4040.63</v>
       </c>
       <c r="D24" t="n">
-        <v>240.42</v>
+        <v>4024.61</v>
       </c>
       <c r="E24" t="n">
-        <v>243.48</v>
+        <v>4036.06</v>
       </c>
       <c r="F24" t="n">
-        <v>1157.3491</v>
+        <v>235.74971585</v>
       </c>
       <c r="G24" t="n">
-        <v>280189.25</v>
+        <v>950862.5564080537</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="n">
-        <v>43366.75</v>
+        <v>43545.54166666666</v>
       </c>
       <c r="B25" t="n">
-        <v>243.46</v>
+        <v>4036.73</v>
       </c>
       <c r="C25" t="n">
-        <v>243.66</v>
+        <v>4055.35</v>
       </c>
       <c r="D25" t="n">
-        <v>241.18</v>
+        <v>4030</v>
       </c>
       <c r="E25" t="n">
-        <v>241.92</v>
+        <v>4034</v>
       </c>
       <c r="F25" t="n">
-        <v>128.66675</v>
+        <v>1086.64426067</v>
       </c>
       <c r="G25" t="n">
-        <v>31169.309</v>
+        <v>4392719.952667902</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="n">
-        <v>43366.79166666666</v>
+        <v>43545.58333333334</v>
       </c>
       <c r="B26" t="n">
-        <v>241.44</v>
+        <v>4034</v>
       </c>
       <c r="C26" t="n">
-        <v>244.75</v>
+        <v>4039.74</v>
       </c>
       <c r="D26" t="n">
-        <v>240.25</v>
+        <v>4005.82</v>
       </c>
       <c r="E26" t="n">
-        <v>244</v>
+        <v>4023.17</v>
       </c>
       <c r="F26" t="n">
-        <v>1028.8517</v>
+        <v>741.4771875500001</v>
       </c>
       <c r="G26" t="n">
-        <v>250179.69</v>
+        <v>2986492.703953735</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="n">
-        <v>43366.83333333334</v>
+        <v>43545.625</v>
       </c>
       <c r="B27" t="n">
-        <v>243.42</v>
+        <v>4022.81</v>
       </c>
       <c r="C27" t="n">
-        <v>243.94</v>
+        <v>4023.68</v>
       </c>
       <c r="D27" t="n">
-        <v>242.56</v>
+        <v>3919.63</v>
       </c>
       <c r="E27" t="n">
-        <v>243.18</v>
+        <v>3927.89</v>
       </c>
       <c r="F27" t="n">
-        <v>154.20766</v>
+        <v>1465.85968652</v>
       </c>
       <c r="G27" t="n">
-        <v>37469.5</v>
+        <v>5826046.226362219</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="n">
-        <v>43366.875</v>
+        <v>43545.66666666666</v>
       </c>
       <c r="B28" t="n">
-        <v>242.78</v>
+        <v>3926.12</v>
       </c>
       <c r="C28" t="n">
-        <v>243.07</v>
+        <v>3974.99</v>
       </c>
       <c r="D28" t="n">
-        <v>241.18</v>
+        <v>3925.98</v>
       </c>
       <c r="E28" t="n">
-        <v>241.82</v>
+        <v>3968.38</v>
       </c>
       <c r="F28" t="n">
-        <v>103.771614</v>
+        <v>646.1603602599999</v>
       </c>
       <c r="G28" t="n">
-        <v>25145.227</v>
+        <v>2559229.725610032</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="n">
-        <v>43366.91666666666</v>
+        <v>43545.70833333334</v>
       </c>
       <c r="B29" t="n">
-        <v>241.83</v>
+        <v>3967.16</v>
       </c>
       <c r="C29" t="n">
-        <v>242.04</v>
+        <v>3968.7</v>
       </c>
       <c r="D29" t="n">
-        <v>238.99</v>
+        <v>3942.81</v>
       </c>
       <c r="E29" t="n">
-        <v>240.93</v>
+        <v>3963.96</v>
       </c>
       <c r="F29" t="n">
-        <v>2986.2495</v>
+        <v>427.55106336</v>
       </c>
       <c r="G29" t="n">
-        <v>716430.1</v>
+        <v>1691446.831412795</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="n">
-        <v>43366.95833333334</v>
+        <v>43545.75</v>
       </c>
       <c r="B30" t="n">
-        <v>240.93</v>
+        <v>3963.96</v>
       </c>
       <c r="C30" t="n">
-        <v>244</v>
+        <v>3967.87</v>
       </c>
       <c r="D30" t="n">
-        <v>240.31</v>
+        <v>3956</v>
       </c>
       <c r="E30" t="n">
-        <v>243.99</v>
+        <v>3962.49</v>
       </c>
       <c r="F30" t="n">
-        <v>616.6103000000001</v>
+        <v>230.28486563</v>
       </c>
       <c r="G30" t="n">
-        <v>149664.02</v>
+        <v>912429.629464835</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="n">
-        <v>43367</v>
+        <v>43545.79166666666</v>
       </c>
       <c r="B31" t="n">
-        <v>243.99</v>
+        <v>3962.49</v>
       </c>
       <c r="C31" t="n">
-        <v>245</v>
+        <v>3966.44</v>
       </c>
       <c r="D31" t="n">
-        <v>243.16</v>
+        <v>3958.09</v>
       </c>
       <c r="E31" t="n">
-        <v>244.14</v>
+        <v>3965.82</v>
       </c>
       <c r="F31" t="n">
-        <v>920.0107400000001</v>
+        <v>297.9698671</v>
       </c>
       <c r="G31" t="n">
-        <v>224661.19</v>
+        <v>1180936.875848195</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="n">
-        <v>43367.04166666666</v>
+        <v>43545.83333333334</v>
       </c>
       <c r="B32" t="n">
-        <v>244.44</v>
+        <v>3964.73</v>
       </c>
       <c r="C32" t="n">
-        <v>244.76</v>
+        <v>3975.68</v>
       </c>
       <c r="D32" t="n">
-        <v>242.43</v>
+        <v>3963.77</v>
       </c>
       <c r="E32" t="n">
-        <v>242.68</v>
+        <v>3974.79</v>
       </c>
       <c r="F32" t="n">
-        <v>1436.5919</v>
+        <v>300.95482648</v>
       </c>
       <c r="G32" t="n">
-        <v>349969.5</v>
+        <v>1194935.820557445</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="n">
-        <v>43367.08333333334</v>
+        <v>43545.875</v>
       </c>
       <c r="B33" t="n">
-        <v>242.9</v>
+        <v>3973.51</v>
       </c>
       <c r="C33" t="n">
-        <v>245.35</v>
+        <v>3974.5</v>
       </c>
       <c r="D33" t="n">
-        <v>242.9</v>
+        <v>3970</v>
       </c>
       <c r="E33" t="n">
-        <v>244.27</v>
+        <v>3974.5</v>
       </c>
       <c r="F33" t="n">
-        <v>469.80338</v>
+        <v>69.249408</v>
       </c>
       <c r="G33" t="n">
-        <v>114768.58</v>
+        <v>275070.4083058634</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="n">
-        <v>43367.125</v>
+        <v>43545.91666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>244.27</v>
+        <v>3974.25</v>
       </c>
       <c r="C34" t="n">
-        <v>245.76</v>
+        <v>3982.17</v>
       </c>
       <c r="D34" t="n">
-        <v>243.86</v>
+        <v>3972.75</v>
       </c>
       <c r="E34" t="n">
-        <v>244.65</v>
+        <v>3977.6</v>
       </c>
       <c r="F34" t="n">
-        <v>371.81824</v>
+        <v>109.71357304</v>
       </c>
       <c r="G34" t="n">
-        <v>90933.39999999999</v>
+        <v>436405.7988150164</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="n">
-        <v>43367.16666666666</v>
+        <v>43545.95833333334</v>
       </c>
       <c r="B35" t="n">
-        <v>244.03</v>
+        <v>3979.85</v>
       </c>
       <c r="C35" t="n">
-        <v>245.48</v>
+        <v>3988</v>
       </c>
       <c r="D35" t="n">
-        <v>244.03</v>
+        <v>3972.32</v>
       </c>
       <c r="E35" t="n">
-        <v>244.52</v>
+        <v>3978.31</v>
       </c>
       <c r="F35" t="n">
-        <v>160.26627</v>
+        <v>189.66936955</v>
       </c>
       <c r="G35" t="n">
-        <v>39236.5</v>
+        <v>754937.6942093599</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="n">
-        <v>43367.20833333334</v>
+        <v>43546</v>
       </c>
       <c r="B36" t="n">
-        <v>244.52</v>
+        <v>3978.31</v>
       </c>
       <c r="C36" t="n">
-        <v>244.61</v>
+        <v>3980.72</v>
       </c>
       <c r="D36" t="n">
-        <v>241.76</v>
+        <v>3973.47</v>
       </c>
       <c r="E36" t="n">
-        <v>242.52</v>
+        <v>3974.21</v>
       </c>
       <c r="F36" t="n">
-        <v>375.85605</v>
+        <v>77.68158108999999</v>
       </c>
       <c r="G36" t="n">
-        <v>91538.99000000001</v>
+        <v>308948.2931060776</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="n">
-        <v>43367.25</v>
+        <v>43546.04166666666</v>
       </c>
       <c r="B37" t="n">
-        <v>242.95</v>
+        <v>3974.5</v>
       </c>
       <c r="C37" t="n">
-        <v>242.95</v>
+        <v>3980.31</v>
       </c>
       <c r="D37" t="n">
-        <v>238.1</v>
+        <v>3970</v>
       </c>
       <c r="E37" t="n">
-        <v>240</v>
+        <v>3978.93</v>
       </c>
       <c r="F37" t="n">
-        <v>710.73175</v>
+        <v>111.68065549</v>
       </c>
       <c r="G37" t="n">
-        <v>170316.4</v>
+        <v>444009.5870082411</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="n">
-        <v>43367.29166666666</v>
+        <v>43546.08333333334</v>
       </c>
       <c r="B38" t="n">
-        <v>239.77</v>
+        <v>3978.77</v>
       </c>
       <c r="C38" t="n">
-        <v>239.77</v>
+        <v>3981.12</v>
       </c>
       <c r="D38" t="n">
-        <v>231.03</v>
+        <v>3973.76</v>
       </c>
       <c r="E38" t="n">
-        <v>233.83</v>
+        <v>3979.36</v>
       </c>
       <c r="F38" t="n">
-        <v>2365.519</v>
+        <v>58.61361048</v>
       </c>
       <c r="G38" t="n">
-        <v>554353.5</v>
+        <v>233188.2930561967</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="n">
-        <v>43367.33333333334</v>
+        <v>43546.125</v>
       </c>
       <c r="B39" t="n">
-        <v>233.83</v>
+        <v>3979.36</v>
       </c>
       <c r="C39" t="n">
-        <v>237.65</v>
+        <v>3986.66</v>
       </c>
       <c r="D39" t="n">
-        <v>232.74</v>
+        <v>3978.82</v>
       </c>
       <c r="E39" t="n">
-        <v>235.71</v>
+        <v>3981.61</v>
       </c>
       <c r="F39" t="n">
-        <v>1366.9915</v>
+        <v>202.19208907</v>
       </c>
       <c r="G39" t="n">
-        <v>322086.38</v>
+        <v>805120.9217886018</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="n">
-        <v>43367.375</v>
+        <v>43546.16666666666</v>
       </c>
       <c r="B40" t="n">
-        <v>235.75</v>
+        <v>3981.94</v>
       </c>
       <c r="C40" t="n">
-        <v>235.9</v>
+        <v>3983.16</v>
       </c>
       <c r="D40" t="n">
-        <v>229.51</v>
+        <v>3972.7</v>
       </c>
       <c r="E40" t="n">
-        <v>233.54</v>
+        <v>3974.34</v>
       </c>
       <c r="F40" t="n">
-        <v>1297.786</v>
+        <v>188.92809642</v>
       </c>
       <c r="G40" t="n">
-        <v>302046.94</v>
+        <v>751836.4395502514</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="n">
-        <v>43367.41666666666</v>
+        <v>43546.20833333334</v>
       </c>
       <c r="B41" t="n">
-        <v>233.66</v>
+        <v>3974.34</v>
       </c>
       <c r="C41" t="n">
-        <v>233.66</v>
+        <v>3974.36</v>
       </c>
       <c r="D41" t="n">
-        <v>229.52</v>
+        <v>3970</v>
       </c>
       <c r="E41" t="n">
-        <v>231</v>
+        <v>3971.29</v>
       </c>
       <c r="F41" t="n">
-        <v>1332.0378</v>
+        <v>73.62752709999999</v>
       </c>
       <c r="G41" t="n">
-        <v>308721.03</v>
+        <v>292446.9663818763</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="n">
-        <v>43367.45833333334</v>
+        <v>43546.25</v>
       </c>
       <c r="B42" t="n">
-        <v>230.91</v>
+        <v>3971.83</v>
       </c>
       <c r="C42" t="n">
-        <v>234.88</v>
+        <v>3976.19</v>
       </c>
       <c r="D42" t="n">
-        <v>230.91</v>
+        <v>3970.27</v>
       </c>
       <c r="E42" t="n">
-        <v>234.31</v>
+        <v>3975.4</v>
       </c>
       <c r="F42" t="n">
-        <v>851.4636</v>
+        <v>48.49727348</v>
       </c>
       <c r="G42" t="n">
-        <v>198810.52</v>
+        <v>192707.0864359373</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="n">
-        <v>43367.5</v>
+        <v>43546.29166666666</v>
       </c>
       <c r="B43" t="n">
-        <v>233.51</v>
+        <v>3975</v>
       </c>
       <c r="C43" t="n">
-        <v>234.33</v>
+        <v>3975.31</v>
       </c>
       <c r="D43" t="n">
-        <v>231.2</v>
+        <v>3970</v>
       </c>
       <c r="E43" t="n">
-        <v>232.49</v>
+        <v>3971.93</v>
       </c>
       <c r="F43" t="n">
-        <v>1055.5947</v>
+        <v>35.95590094</v>
       </c>
       <c r="G43" t="n">
-        <v>246090.6</v>
+        <v>142806.111886573</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="n">
-        <v>43367.54166666666</v>
+        <v>43546.33333333334</v>
       </c>
       <c r="B44" t="n">
-        <v>232.75</v>
+        <v>3971.93</v>
       </c>
       <c r="C44" t="n">
-        <v>235.86</v>
+        <v>3972.89</v>
       </c>
       <c r="D44" t="n">
-        <v>232.35</v>
+        <v>3958.94</v>
       </c>
       <c r="E44" t="n">
-        <v>235.01</v>
+        <v>3966.34</v>
       </c>
       <c r="F44" t="n">
-        <v>1391.1677</v>
+        <v>450.36842621</v>
       </c>
       <c r="G44" t="n">
-        <v>326297.16</v>
+        <v>1786599.647963806</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="n">
-        <v>43367.58333333334</v>
+        <v>43546.375</v>
       </c>
       <c r="B45" t="n">
-        <v>235.01</v>
+        <v>3966.56</v>
       </c>
       <c r="C45" t="n">
-        <v>235.12</v>
+        <v>3980</v>
       </c>
       <c r="D45" t="n">
-        <v>233.37</v>
+        <v>3965.91</v>
       </c>
       <c r="E45" t="n">
-        <v>234.44</v>
+        <v>3977.52</v>
       </c>
       <c r="F45" t="n">
-        <v>368.31708</v>
+        <v>189.31362813</v>
       </c>
       <c r="G45" t="n">
-        <v>86260.69500000001</v>
+        <v>752330.5771486018</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="n">
-        <v>43367.625</v>
+        <v>43546.41666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>234.34</v>
+        <v>3976.95</v>
       </c>
       <c r="C46" t="n">
-        <v>235.02</v>
+        <v>3981.79</v>
       </c>
       <c r="D46" t="n">
-        <v>232.95</v>
+        <v>3973.98</v>
       </c>
       <c r="E46" t="n">
-        <v>234.08</v>
+        <v>3975.81</v>
       </c>
       <c r="F46" t="n">
-        <v>163.81006</v>
+        <v>165.29372271</v>
       </c>
       <c r="G46" t="n">
-        <v>38321.324</v>
+        <v>657635.9910668646</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="n">
-        <v>43367.66666666666</v>
+        <v>43546.45833333334</v>
       </c>
       <c r="B47" t="n">
-        <v>233.43</v>
+        <v>3975.98</v>
       </c>
       <c r="C47" t="n">
-        <v>233.61</v>
+        <v>3984</v>
       </c>
       <c r="D47" t="n">
-        <v>231</v>
+        <v>3974.52</v>
       </c>
       <c r="E47" t="n">
-        <v>232.05</v>
+        <v>3978.28</v>
       </c>
       <c r="F47" t="n">
-        <v>422.7178</v>
+        <v>104.71816058</v>
       </c>
       <c r="G47" t="n">
-        <v>98065.45</v>
+        <v>416841.5370012756</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="n">
-        <v>43367.70833333334</v>
+        <v>43546.5</v>
       </c>
       <c r="B48" t="n">
-        <v>232.81</v>
+        <v>3978.28</v>
       </c>
       <c r="C48" t="n">
-        <v>234.79</v>
+        <v>3984</v>
       </c>
       <c r="D48" t="n">
-        <v>232.65</v>
+        <v>3976.51</v>
       </c>
       <c r="E48" t="n">
-        <v>234.29</v>
+        <v>3983.64</v>
       </c>
       <c r="F48" t="n">
-        <v>437.87518</v>
+        <v>117.46684176</v>
       </c>
       <c r="G48" t="n">
-        <v>102495.92</v>
+        <v>467561.9667625402</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="n">
-        <v>43367.75</v>
+        <v>43546.54166666666</v>
       </c>
       <c r="B49" t="n">
-        <v>234.29</v>
+        <v>3983.6</v>
       </c>
       <c r="C49" t="n">
-        <v>236.77</v>
+        <v>3989.5</v>
       </c>
       <c r="D49" t="n">
-        <v>234.29</v>
+        <v>3979.61</v>
       </c>
       <c r="E49" t="n">
-        <v>236.25</v>
+        <v>3987.95</v>
       </c>
       <c r="F49" t="n">
-        <v>959.9429</v>
+        <v>125.52036447</v>
       </c>
       <c r="G49" t="n">
-        <v>225852.84</v>
+        <v>500078.8238670994</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="n">
-        <v>43367.79166666666</v>
+        <v>43546.58333333334</v>
       </c>
       <c r="B50" t="n">
-        <v>235.74</v>
+        <v>3988.67</v>
       </c>
       <c r="C50" t="n">
-        <v>236.86</v>
+        <v>3999.5</v>
       </c>
       <c r="D50" t="n">
-        <v>234.6</v>
+        <v>3984.34</v>
       </c>
       <c r="E50" t="n">
-        <v>235.13</v>
+        <v>3984.34</v>
       </c>
       <c r="F50" t="n">
-        <v>265.97052</v>
+        <v>246.51457473</v>
       </c>
       <c r="G50" t="n">
-        <v>62583.97</v>
+        <v>983695.5215132122</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="n">
-        <v>43367.83333333334</v>
+        <v>43546.625</v>
       </c>
       <c r="B51" t="n">
-        <v>235.13</v>
+        <v>3986.33</v>
       </c>
       <c r="C51" t="n">
-        <v>235.16</v>
+        <v>3994.51</v>
       </c>
       <c r="D51" t="n">
-        <v>233.36</v>
+        <v>3984.33</v>
       </c>
       <c r="E51" t="n">
-        <v>234</v>
+        <v>3992.62</v>
       </c>
       <c r="F51" t="n">
-        <v>543.7917</v>
+        <v>160.98992417</v>
       </c>
       <c r="G51" t="n">
-        <v>127412.5</v>
+        <v>642227.896124105</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="n">
-        <v>43367.875</v>
+        <v>43546.66666666666</v>
       </c>
       <c r="B52" t="n">
-        <v>234</v>
+        <v>3992.62</v>
       </c>
       <c r="C52" t="n">
-        <v>235.06</v>
+        <v>3996</v>
       </c>
       <c r="D52" t="n">
-        <v>233.66</v>
+        <v>3983.36</v>
       </c>
       <c r="E52" t="n">
-        <v>234.65</v>
+        <v>3984</v>
       </c>
       <c r="F52" t="n">
-        <v>368.16046</v>
+        <v>201.35446111</v>
       </c>
       <c r="G52" t="n">
-        <v>86189.73</v>
+        <v>803373.8052005357</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="n">
-        <v>43367.91666666666</v>
+        <v>43546.70833333334</v>
       </c>
       <c r="B53" t="n">
-        <v>234.23</v>
+        <v>3983.37</v>
       </c>
       <c r="C53" t="n">
-        <v>234.55</v>
+        <v>3991.91</v>
       </c>
       <c r="D53" t="n">
-        <v>231.87</v>
+        <v>3976</v>
       </c>
       <c r="E53" t="n">
-        <v>232.81</v>
+        <v>3991.91</v>
       </c>
       <c r="F53" t="n">
-        <v>987.89557</v>
+        <v>210.74926128</v>
       </c>
       <c r="G53" t="n">
-        <v>230309.14</v>
+        <v>839089.5205673078</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="n">
-        <v>43367.95833333334</v>
+        <v>43546.75</v>
       </c>
       <c r="B54" t="n">
-        <v>232.74</v>
+        <v>3992.54</v>
       </c>
       <c r="C54" t="n">
-        <v>233.29</v>
+        <v>4000.81</v>
       </c>
       <c r="D54" t="n">
-        <v>227.06</v>
+        <v>3984.2</v>
       </c>
       <c r="E54" t="n">
-        <v>228.26</v>
+        <v>3994.5</v>
       </c>
       <c r="F54" t="n">
-        <v>3114.5117</v>
+        <v>175.79137668</v>
       </c>
       <c r="G54" t="n">
-        <v>716824.8</v>
+        <v>701466.9250118366</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="n">
-        <v>43368</v>
+        <v>43546.79166666666</v>
       </c>
       <c r="B55" t="n">
-        <v>228.44</v>
+        <v>3994.74</v>
       </c>
       <c r="C55" t="n">
-        <v>228.72</v>
+        <v>3997.42</v>
       </c>
       <c r="D55" t="n">
-        <v>224.5</v>
+        <v>3989.2</v>
       </c>
       <c r="E55" t="n">
-        <v>228.05</v>
+        <v>3993.09</v>
       </c>
       <c r="F55" t="n">
-        <v>2102.741</v>
+        <v>81.23935485</v>
       </c>
       <c r="G55" t="n">
-        <v>475889.75</v>
+        <v>324400.5903927559</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="n">
-        <v>43368.04166666666</v>
+        <v>43546.83333333334</v>
       </c>
       <c r="B56" t="n">
-        <v>227.64</v>
+        <v>3991.18</v>
       </c>
       <c r="C56" t="n">
-        <v>227.64</v>
+        <v>3996.84</v>
       </c>
       <c r="D56" t="n">
-        <v>223.33</v>
+        <v>3987.14</v>
       </c>
       <c r="E56" t="n">
-        <v>225.29</v>
+        <v>3991.43</v>
       </c>
       <c r="F56" t="n">
-        <v>1357.4554</v>
+        <v>138.26244402</v>
       </c>
       <c r="G56" t="n">
-        <v>305505.16</v>
+        <v>552044.4508267532</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="n">
-        <v>43368.08333333334</v>
+        <v>43546.875</v>
       </c>
       <c r="B57" t="n">
-        <v>224.49</v>
+        <v>3988.59</v>
       </c>
       <c r="C57" t="n">
-        <v>224.87</v>
+        <v>3988.6</v>
       </c>
       <c r="D57" t="n">
-        <v>220.15</v>
+        <v>3976</v>
       </c>
       <c r="E57" t="n">
-        <v>221.8</v>
+        <v>3978.29</v>
       </c>
       <c r="F57" t="n">
-        <v>1752.34</v>
+        <v>82.83707479</v>
       </c>
       <c r="G57" t="n">
-        <v>389192.56</v>
+        <v>330020.857497192</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="n">
-        <v>43368.125</v>
+        <v>43546.91666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>221.79</v>
+        <v>3978.08</v>
       </c>
       <c r="C58" t="n">
-        <v>221.79</v>
+        <v>3987</v>
       </c>
       <c r="D58" t="n">
-        <v>217.94</v>
+        <v>3974.25</v>
       </c>
       <c r="E58" t="n">
-        <v>221.12</v>
+        <v>3981.4</v>
       </c>
       <c r="F58" t="n">
-        <v>3281.3452</v>
+        <v>114.0370369</v>
       </c>
       <c r="G58" t="n">
-        <v>719507.8</v>
+        <v>454125.9354235647</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="n">
-        <v>43368.16666666666</v>
+        <v>43546.95833333334</v>
       </c>
       <c r="B59" t="n">
-        <v>220.19</v>
+        <v>3981.4</v>
       </c>
       <c r="C59" t="n">
-        <v>223.25</v>
+        <v>3987</v>
       </c>
       <c r="D59" t="n">
-        <v>220</v>
+        <v>3980.79</v>
       </c>
       <c r="E59" t="n">
-        <v>221.19</v>
+        <v>3983.9</v>
       </c>
       <c r="F59" t="n">
-        <v>873.6802</v>
+        <v>91.89225811</v>
       </c>
       <c r="G59" t="n">
-        <v>193493.16</v>
+        <v>366175.7942891547</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="n">
-        <v>43368.20833333334</v>
+        <v>43547</v>
       </c>
       <c r="B60" t="n">
-        <v>221.29</v>
+        <v>3983.31</v>
       </c>
       <c r="C60" t="n">
-        <v>222.05</v>
+        <v>3986.39</v>
       </c>
       <c r="D60" t="n">
-        <v>220</v>
+        <v>3980.83</v>
       </c>
       <c r="E60" t="n">
-        <v>220.28</v>
+        <v>3982.07</v>
       </c>
       <c r="F60" t="n">
-        <v>1439.7192</v>
+        <v>79.11234517</v>
       </c>
       <c r="G60" t="n">
-        <v>318631.97</v>
+        <v>315185.0479072096</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="n">
-        <v>43368.25</v>
+        <v>43547.04166666666</v>
       </c>
       <c r="B61" t="n">
-        <v>220.24</v>
+        <v>3980.4</v>
       </c>
       <c r="C61" t="n">
-        <v>221.52</v>
+        <v>3981.83</v>
       </c>
       <c r="D61" t="n">
-        <v>219.5</v>
+        <v>3968.54</v>
       </c>
       <c r="E61" t="n">
-        <v>220.93</v>
+        <v>3976.59</v>
       </c>
       <c r="F61" t="n">
-        <v>801.7071</v>
+        <v>180.38131075</v>
       </c>
       <c r="G61" t="n">
-        <v>176782.33</v>
+        <v>716921.4027956455</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="n">
-        <v>43368.29166666666</v>
+        <v>43547.08333333334</v>
       </c>
       <c r="B62" t="n">
-        <v>220.83</v>
+        <v>3977.33</v>
       </c>
       <c r="C62" t="n">
-        <v>220.85</v>
+        <v>3983.5</v>
       </c>
       <c r="D62" t="n">
-        <v>207.95</v>
+        <v>3974.45</v>
       </c>
       <c r="E62" t="n">
-        <v>211.43</v>
+        <v>3979</v>
       </c>
       <c r="F62" t="n">
-        <v>5504.6797</v>
+        <v>108.82076222</v>
       </c>
       <c r="G62" t="n">
-        <v>1174766.9</v>
+        <v>432828.1914456821</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="n">
-        <v>43368.33333333334</v>
+        <v>43547.125</v>
       </c>
       <c r="B63" t="n">
-        <v>211.3</v>
+        <v>3979.15</v>
       </c>
       <c r="C63" t="n">
-        <v>213.58</v>
+        <v>3996.26</v>
       </c>
       <c r="D63" t="n">
-        <v>207.27</v>
+        <v>3979.15</v>
       </c>
       <c r="E63" t="n">
-        <v>208.42</v>
+        <v>3996.2</v>
       </c>
       <c r="F63" t="n">
-        <v>4040.7825</v>
+        <v>183.7290346</v>
       </c>
       <c r="G63" t="n">
-        <v>849438</v>
+        <v>732889.6869833057</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="n">
-        <v>43368.375</v>
+        <v>43547.16666666666</v>
       </c>
       <c r="B64" t="n">
-        <v>208.42</v>
+        <v>3996.22</v>
       </c>
       <c r="C64" t="n">
-        <v>212.86</v>
+        <v>3997.99</v>
       </c>
       <c r="D64" t="n">
-        <v>208.27</v>
+        <v>3991</v>
       </c>
       <c r="E64" t="n">
-        <v>212.06</v>
+        <v>3996.49</v>
       </c>
       <c r="F64" t="n">
-        <v>1205.9188</v>
+        <v>94.27307848</v>
       </c>
       <c r="G64" t="n">
-        <v>254349.95</v>
+        <v>376626.1846764127</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="n">
-        <v>43368.41666666666</v>
+        <v>43547.20833333334</v>
       </c>
       <c r="B65" t="n">
-        <v>212.06</v>
+        <v>3995.59</v>
       </c>
       <c r="C65" t="n">
-        <v>213.3</v>
+        <v>3997.06</v>
       </c>
       <c r="D65" t="n">
-        <v>210.62</v>
+        <v>3984.75</v>
       </c>
       <c r="E65" t="n">
-        <v>211.21</v>
+        <v>3986.5</v>
       </c>
       <c r="F65" t="n">
-        <v>1050.2324</v>
+        <v>67.31457918</v>
       </c>
       <c r="G65" t="n">
-        <v>222739.19</v>
+        <v>268779.7208441995</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="n">
-        <v>43368.45833333334</v>
+        <v>43547.25</v>
       </c>
       <c r="B66" t="n">
-        <v>211.79</v>
+        <v>3983.06</v>
       </c>
       <c r="C66" t="n">
-        <v>212.07</v>
+        <v>3991.5</v>
       </c>
       <c r="D66" t="n">
-        <v>209.29</v>
+        <v>3983.06</v>
       </c>
       <c r="E66" t="n">
-        <v>210.98</v>
+        <v>3989.94</v>
       </c>
       <c r="F66" t="n">
-        <v>1369.6144</v>
+        <v>64.48691657000001</v>
       </c>
       <c r="G66" t="n">
-        <v>288438.22</v>
+        <v>257174.2897019198</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="n">
-        <v>43368.5</v>
+        <v>43547.29166666666</v>
       </c>
       <c r="B67" t="n">
-        <v>210.62</v>
+        <v>3989.94</v>
       </c>
       <c r="C67" t="n">
-        <v>211</v>
+        <v>4001.17</v>
       </c>
       <c r="D67" t="n">
-        <v>203.25</v>
+        <v>3988.15</v>
       </c>
       <c r="E67" t="n">
-        <v>206.59</v>
+        <v>3995.68</v>
       </c>
       <c r="F67" t="n">
-        <v>3122.9143</v>
+        <v>128.79883541</v>
       </c>
       <c r="G67" t="n">
-        <v>642782.3</v>
+        <v>514718.6927966036</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="n">
-        <v>43368.54166666666</v>
+        <v>43547.33333333334</v>
       </c>
       <c r="B68" t="n">
-        <v>206.85</v>
+        <v>3997.41</v>
       </c>
       <c r="C68" t="n">
-        <v>212.26</v>
+        <v>4001</v>
       </c>
       <c r="D68" t="n">
-        <v>206.64</v>
+        <v>3987.87</v>
       </c>
       <c r="E68" t="n">
-        <v>211.01</v>
+        <v>3989.7</v>
       </c>
       <c r="F68" t="n">
-        <v>1520.3368</v>
+        <v>116.62880771</v>
       </c>
       <c r="G68" t="n">
-        <v>318357.6</v>
+        <v>465898.9933436049</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="n">
-        <v>43368.58333333334</v>
+        <v>43547.375</v>
       </c>
       <c r="B69" t="n">
-        <v>211</v>
+        <v>3989.2</v>
       </c>
       <c r="C69" t="n">
-        <v>211.35</v>
+        <v>3996.62</v>
       </c>
       <c r="D69" t="n">
-        <v>209.32</v>
+        <v>3985.57</v>
       </c>
       <c r="E69" t="n">
-        <v>209.33</v>
+        <v>3993.51</v>
       </c>
       <c r="F69" t="n">
-        <v>1180.2864</v>
+        <v>100.36657182</v>
       </c>
       <c r="G69" t="n">
-        <v>248179.42</v>
+        <v>400550.4258555874</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="n">
-        <v>43368.625</v>
+        <v>43547.41666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>209.83</v>
+        <v>3992.58</v>
       </c>
       <c r="C70" t="n">
-        <v>211.1</v>
+        <v>3993.56</v>
       </c>
       <c r="D70" t="n">
-        <v>208.21</v>
+        <v>3984.79</v>
       </c>
       <c r="E70" t="n">
-        <v>210.46</v>
+        <v>3992.74</v>
       </c>
       <c r="F70" t="n">
-        <v>1477.0793</v>
+        <v>96.56576094</v>
       </c>
       <c r="G70" t="n">
-        <v>309885.8</v>
+        <v>385270.7741266989</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="n">
-        <v>43368.66666666666</v>
+        <v>43547.45833333334</v>
       </c>
       <c r="B71" t="n">
-        <v>210.46</v>
+        <v>3993.56</v>
       </c>
       <c r="C71" t="n">
-        <v>210.67</v>
+        <v>3995.5</v>
       </c>
       <c r="D71" t="n">
-        <v>206.96</v>
+        <v>3966.74</v>
       </c>
       <c r="E71" t="n">
-        <v>210.11</v>
+        <v>3979.36</v>
       </c>
       <c r="F71" t="n">
-        <v>2123.8792</v>
+        <v>182.57761093</v>
       </c>
       <c r="G71" t="n">
-        <v>442557.62</v>
+        <v>725882.8298420812</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="n">
-        <v>43368.70833333334</v>
+        <v>43547.5</v>
       </c>
       <c r="B72" t="n">
-        <v>210.95</v>
+        <v>3979.36</v>
       </c>
       <c r="C72" t="n">
-        <v>213.13</v>
+        <v>3983.69</v>
       </c>
       <c r="D72" t="n">
-        <v>210.16</v>
+        <v>3976.12</v>
       </c>
       <c r="E72" t="n">
-        <v>210.38</v>
+        <v>3982.13</v>
       </c>
       <c r="F72" t="n">
-        <v>639.6639</v>
+        <v>113.26807705</v>
       </c>
       <c r="G72" t="n">
-        <v>135438.97</v>
+        <v>450809.6034756003</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="n">
-        <v>43368.75</v>
+        <v>43547.54166666666</v>
       </c>
       <c r="B73" t="n">
-        <v>210.59</v>
+        <v>3982.25</v>
       </c>
       <c r="C73" t="n">
-        <v>211.17</v>
+        <v>3987.17</v>
       </c>
       <c r="D73" t="n">
-        <v>208.03</v>
+        <v>3971.05</v>
       </c>
       <c r="E73" t="n">
-        <v>209.02</v>
+        <v>3972.81</v>
       </c>
       <c r="F73" t="n">
-        <v>1389.198</v>
+        <v>105.92295002</v>
       </c>
       <c r="G73" t="n">
-        <v>291135.75</v>
+        <v>421632.9759088795</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="n">
-        <v>43368.79166666666</v>
+        <v>43547.58333333334</v>
       </c>
       <c r="B74" t="n">
-        <v>209.16</v>
+        <v>3974.94</v>
       </c>
       <c r="C74" t="n">
-        <v>210.74</v>
+        <v>3976.27</v>
       </c>
       <c r="D74" t="n">
-        <v>205.5</v>
+        <v>3957.11</v>
       </c>
       <c r="E74" t="n">
-        <v>208</v>
+        <v>3975.68</v>
       </c>
       <c r="F74" t="n">
-        <v>1381.1779</v>
+        <v>136.89888711</v>
       </c>
       <c r="G74" t="n">
-        <v>287468.38</v>
+        <v>543146.34926739</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="n">
-        <v>43368.83333333334</v>
+        <v>43547.625</v>
       </c>
       <c r="B75" t="n">
-        <v>207.96</v>
+        <v>3973</v>
       </c>
       <c r="C75" t="n">
-        <v>210.78</v>
+        <v>3974.17</v>
       </c>
       <c r="D75" t="n">
-        <v>207.72</v>
+        <v>3962.94</v>
       </c>
       <c r="E75" t="n">
-        <v>210.01</v>
+        <v>3972.28</v>
       </c>
       <c r="F75" t="n">
-        <v>1084.3618</v>
+        <v>67.9234742</v>
       </c>
       <c r="G75" t="n">
-        <v>226677.75</v>
+        <v>269438.6352146804</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="n">
-        <v>43368.875</v>
+        <v>43547.66666666666</v>
       </c>
       <c r="B76" t="n">
-        <v>210.11</v>
+        <v>3972.28</v>
       </c>
       <c r="C76" t="n">
-        <v>216.42</v>
+        <v>3978.65</v>
       </c>
       <c r="D76" t="n">
-        <v>209.67</v>
+        <v>3970</v>
       </c>
       <c r="E76" t="n">
-        <v>214.7</v>
+        <v>3978.2</v>
       </c>
       <c r="F76" t="n">
-        <v>2508.8423</v>
+        <v>74.34656147</v>
       </c>
       <c r="G76" t="n">
-        <v>536888.2</v>
+        <v>295423.785018897</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="n">
-        <v>43368.91666666666</v>
+        <v>43547.70833333334</v>
       </c>
       <c r="B77" t="n">
-        <v>213.79</v>
+        <v>3978.6</v>
       </c>
       <c r="C77" t="n">
-        <v>217.87</v>
+        <v>3978.65</v>
       </c>
       <c r="D77" t="n">
-        <v>213.06</v>
+        <v>3967.72</v>
       </c>
       <c r="E77" t="n">
-        <v>217.65</v>
+        <v>3971.14</v>
       </c>
       <c r="F77" t="n">
-        <v>2452.0334</v>
+        <v>46.75020682</v>
       </c>
       <c r="G77" t="n">
-        <v>529315.5</v>
+        <v>185641.7065428331</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="n">
-        <v>43368.95833333334</v>
+        <v>43547.75</v>
       </c>
       <c r="B78" t="n">
-        <v>217.46</v>
+        <v>3971.34</v>
       </c>
       <c r="C78" t="n">
-        <v>217.47</v>
+        <v>3975.14</v>
       </c>
       <c r="D78" t="n">
-        <v>214.57</v>
+        <v>3966.72</v>
       </c>
       <c r="E78" t="n">
-        <v>214.72</v>
+        <v>3970.64</v>
       </c>
       <c r="F78" t="n">
-        <v>538.52203</v>
+        <v>68.77207452</v>
       </c>
       <c r="G78" t="n">
-        <v>116414.05</v>
+        <v>273144.1661344579</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="n">
-        <v>43369</v>
+        <v>43547.79166666666</v>
       </c>
       <c r="B79" t="n">
-        <v>214.47</v>
+        <v>3970.98</v>
       </c>
       <c r="C79" t="n">
-        <v>219.15</v>
+        <v>3973.59</v>
       </c>
       <c r="D79" t="n">
-        <v>214.39</v>
+        <v>3969.12</v>
       </c>
       <c r="E79" t="n">
-        <v>218.85</v>
+        <v>3972.02</v>
       </c>
       <c r="F79" t="n">
-        <v>1583.8655</v>
+        <v>38.3950023</v>
       </c>
       <c r="G79" t="n">
-        <v>344164.56</v>
+        <v>152479.3175603973</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="n">
-        <v>43369.04166666666</v>
+        <v>43547.83333333334</v>
       </c>
       <c r="B80" t="n">
-        <v>219.4</v>
+        <v>3972.02</v>
       </c>
       <c r="C80" t="n">
-        <v>219.82</v>
+        <v>3974.69</v>
       </c>
       <c r="D80" t="n">
-        <v>214.94</v>
+        <v>3969.86</v>
       </c>
       <c r="E80" t="n">
-        <v>215.9</v>
+        <v>3971.97</v>
       </c>
       <c r="F80" t="n">
-        <v>500.18674</v>
+        <v>42.34181001</v>
       </c>
       <c r="G80" t="n">
-        <v>108635.164</v>
+        <v>168208.7771232498</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="n">
-        <v>43369.08333333334</v>
+        <v>43547.875</v>
       </c>
       <c r="B81" t="n">
-        <v>214.91</v>
+        <v>3971.97</v>
       </c>
       <c r="C81" t="n">
-        <v>215.17</v>
+        <v>3971.97</v>
       </c>
       <c r="D81" t="n">
-        <v>208.77</v>
+        <v>3967.64</v>
       </c>
       <c r="E81" t="n">
-        <v>210.6</v>
+        <v>3970.54</v>
       </c>
       <c r="F81" t="n">
-        <v>1652.0952</v>
+        <v>41.1966934</v>
       </c>
       <c r="G81" t="n">
-        <v>350246.06</v>
+        <v>163526.7617681326</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="n">
-        <v>43369.125</v>
+        <v>43547.91666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>210.79</v>
+        <v>3970.54</v>
       </c>
       <c r="C82" t="n">
-        <v>212.07</v>
+        <v>3979.82</v>
       </c>
       <c r="D82" t="n">
-        <v>208.18</v>
+        <v>3970.17</v>
       </c>
       <c r="E82" t="n">
-        <v>208.94</v>
+        <v>3973.52</v>
       </c>
       <c r="F82" t="n">
-        <v>575.8923</v>
+        <v>74.6731947</v>
       </c>
       <c r="G82" t="n">
-        <v>121230.44</v>
+        <v>296758.5924975485</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2" t="n">
-        <v>43369.16666666666</v>
+        <v>43547.95833333334</v>
       </c>
       <c r="B83" t="n">
-        <v>208.94</v>
+        <v>3973.52</v>
       </c>
       <c r="C83" t="n">
-        <v>209.96</v>
+        <v>3979.99</v>
       </c>
       <c r="D83" t="n">
-        <v>207.21</v>
+        <v>3971.55</v>
       </c>
       <c r="E83" t="n">
-        <v>209.09</v>
+        <v>3976</v>
       </c>
       <c r="F83" t="n">
-        <v>1325.5253</v>
+        <v>54.0448295</v>
       </c>
       <c r="G83" t="n">
-        <v>276934.25</v>
+        <v>214918.7863403583</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2" t="n">
-        <v>43369.20833333334</v>
+        <v>43548</v>
       </c>
       <c r="B84" t="n">
-        <v>209.01</v>
+        <v>3974.69</v>
       </c>
       <c r="C84" t="n">
-        <v>211.49</v>
+        <v>3985.77</v>
       </c>
       <c r="D84" t="n">
-        <v>207.62</v>
+        <v>3974.69</v>
       </c>
       <c r="E84" t="n">
-        <v>211.22</v>
+        <v>3982.52</v>
       </c>
       <c r="F84" t="n">
-        <v>972.29944</v>
+        <v>68.49410639</v>
       </c>
       <c r="G84" t="n">
-        <v>203951.98</v>
+        <v>272675.7047520559</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2" t="n">
-        <v>43369.25</v>
+        <v>43548.04166666666</v>
       </c>
       <c r="B85" t="n">
-        <v>211.22</v>
+        <v>3979.19</v>
       </c>
       <c r="C85" t="n">
-        <v>214.73</v>
+        <v>3980</v>
       </c>
       <c r="D85" t="n">
-        <v>211.22</v>
+        <v>3971.76</v>
       </c>
       <c r="E85" t="n">
-        <v>213.04</v>
+        <v>3976.04</v>
       </c>
       <c r="F85" t="n">
-        <v>2014.4423</v>
+        <v>63.22403603</v>
       </c>
       <c r="G85" t="n">
-        <v>430401.47</v>
+        <v>251449.0223194848</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2" t="n">
-        <v>43369.29166666666</v>
+        <v>43548.08333333334</v>
       </c>
       <c r="B86" t="n">
-        <v>213.19</v>
+        <v>3976.04</v>
       </c>
       <c r="C86" t="n">
-        <v>214.39</v>
+        <v>3977.79</v>
       </c>
       <c r="D86" t="n">
-        <v>210.66</v>
+        <v>3968.8</v>
       </c>
       <c r="E86" t="n">
-        <v>213.21</v>
+        <v>3972.11</v>
       </c>
       <c r="F86" t="n">
-        <v>688.8634</v>
+        <v>57.16492062</v>
       </c>
       <c r="G86" t="n">
-        <v>146518.8</v>
+        <v>227081.7550312026</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2" t="n">
-        <v>43369.33333333334</v>
+        <v>43548.125</v>
       </c>
       <c r="B87" t="n">
-        <v>212.94</v>
+        <v>3972.11</v>
       </c>
       <c r="C87" t="n">
-        <v>215.43</v>
+        <v>3974.6</v>
       </c>
       <c r="D87" t="n">
-        <v>212.94</v>
+        <v>3956.36</v>
       </c>
       <c r="E87" t="n">
-        <v>213.72</v>
+        <v>3959.02</v>
       </c>
       <c r="F87" t="n">
-        <v>2013.6376</v>
+        <v>244.73646964</v>
       </c>
       <c r="G87" t="n">
-        <v>432285.62</v>
+        <v>970260.9452857549</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2" t="n">
-        <v>43369.375</v>
+        <v>43548.16666666666</v>
       </c>
       <c r="B88" t="n">
-        <v>214.01</v>
+        <v>3959.02</v>
       </c>
       <c r="C88" t="n">
-        <v>214.25</v>
+        <v>3974.72</v>
       </c>
       <c r="D88" t="n">
-        <v>211.69</v>
+        <v>3959.02</v>
       </c>
       <c r="E88" t="n">
-        <v>212.2</v>
+        <v>3969.57</v>
       </c>
       <c r="F88" t="n">
-        <v>711.5995</v>
+        <v>54.87025231</v>
       </c>
       <c r="G88" t="n">
-        <v>151507.02</v>
+        <v>217739.0257421213</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2" t="n">
-        <v>43369.41666666666</v>
+        <v>43548.20833333334</v>
       </c>
       <c r="B89" t="n">
-        <v>212.28</v>
+        <v>3970.52</v>
       </c>
       <c r="C89" t="n">
-        <v>213.35</v>
+        <v>3973.52</v>
       </c>
       <c r="D89" t="n">
-        <v>210.19</v>
+        <v>3966.97</v>
       </c>
       <c r="E89" t="n">
-        <v>213.35</v>
+        <v>3970.29</v>
       </c>
       <c r="F89" t="n">
-        <v>1064.7048</v>
+        <v>31.94157506</v>
       </c>
       <c r="G89" t="n">
-        <v>225622.69</v>
+        <v>126800.7263534494</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2" t="n">
-        <v>43369.45833333334</v>
+        <v>43548.25</v>
       </c>
       <c r="B90" t="n">
-        <v>213.15</v>
+        <v>3970.61</v>
       </c>
       <c r="C90" t="n">
-        <v>214.35</v>
+        <v>3971.1</v>
       </c>
       <c r="D90" t="n">
-        <v>212.19</v>
+        <v>3961.98</v>
       </c>
       <c r="E90" t="n">
-        <v>213.74</v>
+        <v>3965.05</v>
       </c>
       <c r="F90" t="n">
-        <v>654.43146</v>
+        <v>68.56397229</v>
       </c>
       <c r="G90" t="n">
-        <v>139746.06</v>
+        <v>271907.3863067743</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2" t="n">
-        <v>43369.5</v>
+        <v>43548.29166666666</v>
       </c>
       <c r="B91" t="n">
-        <v>213.37</v>
+        <v>3965.27</v>
       </c>
       <c r="C91" t="n">
-        <v>217.44</v>
+        <v>3968.96</v>
       </c>
       <c r="D91" t="n">
-        <v>213.26</v>
+        <v>3962.95</v>
       </c>
       <c r="E91" t="n">
-        <v>216.96</v>
+        <v>3968.47</v>
       </c>
       <c r="F91" t="n">
-        <v>1743.6404</v>
+        <v>65.70614007</v>
       </c>
       <c r="G91" t="n">
-        <v>375763.94</v>
+        <v>260560.130906151</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="n">
-        <v>43369.54166666666</v>
+        <v>43548.33333333334</v>
       </c>
       <c r="B92" t="n">
-        <v>216.88</v>
+        <v>3968.56</v>
       </c>
       <c r="C92" t="n">
-        <v>218.18</v>
+        <v>3968.56</v>
       </c>
       <c r="D92" t="n">
-        <v>214.24</v>
+        <v>3956.71</v>
       </c>
       <c r="E92" t="n">
-        <v>214.9</v>
+        <v>3963.93</v>
       </c>
       <c r="F92" t="n">
-        <v>2250.9988</v>
+        <v>88.90341252</v>
       </c>
       <c r="G92" t="n">
-        <v>487120.12</v>
+        <v>352239.4527745951</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2" t="n">
-        <v>43369.58333333334</v>
+        <v>43548.375</v>
       </c>
       <c r="B93" t="n">
-        <v>214.41</v>
+        <v>3962.92</v>
       </c>
       <c r="C93" t="n">
-        <v>215.2</v>
+        <v>3967.49</v>
       </c>
       <c r="D93" t="n">
-        <v>211.68</v>
+        <v>3962.34</v>
       </c>
       <c r="E93" t="n">
-        <v>213.25</v>
+        <v>3963.89</v>
       </c>
       <c r="F93" t="n">
-        <v>840.97534</v>
+        <v>50.63379415</v>
       </c>
       <c r="G93" t="n">
-        <v>179720.8</v>
+        <v>200748.4172852308</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2" t="n">
-        <v>43369.625</v>
+        <v>43548.41666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>212.82</v>
+        <v>3964.03</v>
       </c>
       <c r="C94" t="n">
-        <v>218.5</v>
+        <v>3980</v>
       </c>
       <c r="D94" t="n">
-        <v>212.82</v>
+        <v>3963.25</v>
       </c>
       <c r="E94" t="n">
-        <v>217.99</v>
+        <v>3972.78</v>
       </c>
       <c r="F94" t="n">
-        <v>828.7478</v>
+        <v>141.32397969</v>
       </c>
       <c r="G94" t="n">
-        <v>179147.28</v>
+        <v>561274.6420085006</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2" t="n">
-        <v>43369.66666666666</v>
+        <v>43548.45833333334</v>
       </c>
       <c r="B95" t="n">
-        <v>217.46</v>
+        <v>3971.14</v>
       </c>
       <c r="C95" t="n">
-        <v>223</v>
+        <v>3978.7</v>
       </c>
       <c r="D95" t="n">
-        <v>217.43</v>
+        <v>3968.96</v>
       </c>
       <c r="E95" t="n">
-        <v>219.89</v>
+        <v>3976.97</v>
       </c>
       <c r="F95" t="n">
-        <v>3036.3186</v>
+        <v>95.28941218999999</v>
       </c>
       <c r="G95" t="n">
-        <v>669358.2</v>
+        <v>378622.58939746</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="n">
-        <v>43369.70833333334</v>
+        <v>43548.5</v>
       </c>
       <c r="B96" t="n">
-        <v>219.87</v>
+        <v>3978.35</v>
       </c>
       <c r="C96" t="n">
-        <v>221.08</v>
+        <v>3980.97</v>
       </c>
       <c r="D96" t="n">
-        <v>218.14</v>
+        <v>3970.37</v>
       </c>
       <c r="E96" t="n">
-        <v>219.7</v>
+        <v>3974.04</v>
       </c>
       <c r="F96" t="n">
-        <v>1156.0718</v>
+        <v>113.35211038</v>
       </c>
       <c r="G96" t="n">
-        <v>253914.03</v>
+        <v>450701.7381960719</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2" t="n">
-        <v>43369.75</v>
+        <v>43548.54166666666</v>
       </c>
       <c r="B97" t="n">
-        <v>219.78</v>
+        <v>3973.85</v>
       </c>
       <c r="C97" t="n">
-        <v>221.91</v>
+        <v>3974.57</v>
       </c>
       <c r="D97" t="n">
-        <v>218.26</v>
+        <v>3967.71</v>
       </c>
       <c r="E97" t="n">
-        <v>220.69</v>
+        <v>3971.14</v>
       </c>
       <c r="F97" t="n">
-        <v>567.9683</v>
+        <v>47.32728368</v>
       </c>
       <c r="G97" t="n">
-        <v>125171.555</v>
+        <v>187930.5457024851</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2" t="n">
-        <v>43369.79166666666</v>
+        <v>43548.58333333334</v>
       </c>
       <c r="B98" t="n">
-        <v>220.53</v>
+        <v>3971.14</v>
       </c>
       <c r="C98" t="n">
-        <v>221.19</v>
+        <v>3977.79</v>
       </c>
       <c r="D98" t="n">
-        <v>217.65</v>
+        <v>3967.11</v>
       </c>
       <c r="E98" t="n">
-        <v>218.87</v>
+        <v>3977.27</v>
       </c>
       <c r="F98" t="n">
-        <v>933.684</v>
+        <v>100.8498235</v>
       </c>
       <c r="G98" t="n">
-        <v>204237.36</v>
+        <v>400512.2963955714</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2" t="n">
-        <v>43369.83333333334</v>
+        <v>43548.625</v>
       </c>
       <c r="B99" t="n">
-        <v>218.5</v>
+        <v>3975.58</v>
       </c>
       <c r="C99" t="n">
-        <v>218.5</v>
+        <v>3977.27</v>
       </c>
       <c r="D99" t="n">
-        <v>215.84</v>
+        <v>3968.12</v>
       </c>
       <c r="E99" t="n">
-        <v>217.1</v>
+        <v>3971.41</v>
       </c>
       <c r="F99" t="n">
-        <v>965.2816</v>
+        <v>64.42216704000001</v>
       </c>
       <c r="G99" t="n">
-        <v>209918.2</v>
+        <v>255961.7652445627</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2" t="n">
-        <v>43369.875</v>
+        <v>43548.66666666666</v>
       </c>
       <c r="B100" t="n">
-        <v>216.63</v>
+        <v>3972.74</v>
       </c>
       <c r="C100" t="n">
-        <v>219.39</v>
+        <v>3974.39</v>
       </c>
       <c r="D100" t="n">
-        <v>215.98</v>
+        <v>3967.99</v>
       </c>
       <c r="E100" t="n">
-        <v>219.35</v>
+        <v>3970.17</v>
       </c>
       <c r="F100" t="n">
-        <v>1529.6598</v>
+        <v>64.69084711000001</v>
       </c>
       <c r="G100" t="n">
-        <v>333441.34</v>
+        <v>256878.4020915376</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2" t="n">
-        <v>43369.91666666666</v>
+        <v>43548.70833333334</v>
       </c>
       <c r="B101" t="n">
-        <v>219.09</v>
+        <v>3971.59</v>
       </c>
       <c r="C101" t="n">
-        <v>219.54</v>
+        <v>3971.79</v>
       </c>
       <c r="D101" t="n">
-        <v>213</v>
+        <v>3964.15</v>
       </c>
       <c r="E101" t="n">
-        <v>215.5</v>
+        <v>3967.1</v>
       </c>
       <c r="F101" t="n">
-        <v>1814.2678</v>
+        <v>83.5162392</v>
       </c>
       <c r="G101" t="n">
-        <v>390502.1</v>
+        <v>331366.0282800766</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2" t="n">
-        <v>43369.95833333334</v>
+        <v>43548.75</v>
       </c>
       <c r="B102" t="n">
-        <v>215.5</v>
+        <v>3967.76</v>
       </c>
       <c r="C102" t="n">
-        <v>216</v>
+        <v>3970.49</v>
       </c>
       <c r="D102" t="n">
-        <v>212.71</v>
+        <v>3961.67</v>
       </c>
       <c r="E102" t="n">
-        <v>215.22</v>
+        <v>3966.89</v>
       </c>
       <c r="F102" t="n">
-        <v>1068.3322</v>
+        <v>114.21460769</v>
       </c>
       <c r="G102" t="n">
-        <v>229733.98</v>
+        <v>452929.3150814383</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2" t="n">
-        <v>43370</v>
+        <v>43548.79166666666</v>
       </c>
       <c r="B103" t="n">
-        <v>215.64</v>
+        <v>3964.92</v>
       </c>
       <c r="C103" t="n">
-        <v>216.46</v>
+        <v>3967.82</v>
       </c>
       <c r="D103" t="n">
-        <v>213.79</v>
+        <v>3955</v>
       </c>
       <c r="E103" t="n">
-        <v>214.42</v>
+        <v>3958.87</v>
       </c>
       <c r="F103" t="n">
-        <v>727.80066</v>
+        <v>129.6113896</v>
       </c>
       <c r="G103" t="n">
-        <v>156422.62</v>
+        <v>513188.4929329701</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2" t="n">
-        <v>43370.04166666666</v>
+        <v>43548.83333333334</v>
       </c>
       <c r="B104" t="n">
-        <v>214.33</v>
+        <v>3960.52</v>
       </c>
       <c r="C104" t="n">
-        <v>218.23</v>
+        <v>3965.91</v>
       </c>
       <c r="D104" t="n">
-        <v>213.89</v>
+        <v>3957</v>
       </c>
       <c r="E104" t="n">
-        <v>217.76</v>
+        <v>3961</v>
       </c>
       <c r="F104" t="n">
-        <v>2991.9548</v>
+        <v>69.00235768</v>
       </c>
       <c r="G104" t="n">
-        <v>648705.6</v>
+        <v>273360.6451510473</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2" t="n">
-        <v>43370.08333333334</v>
+        <v>43548.875</v>
       </c>
       <c r="B105" t="n">
-        <v>217.9</v>
+        <v>3960.97</v>
       </c>
       <c r="C105" t="n">
-        <v>219.44</v>
+        <v>3964.23</v>
       </c>
       <c r="D105" t="n">
-        <v>216.59</v>
+        <v>3942.04</v>
       </c>
       <c r="E105" t="n">
-        <v>216.62</v>
+        <v>3959.76</v>
       </c>
       <c r="F105" t="n">
-        <v>863.95636</v>
+        <v>227.9657832</v>
       </c>
       <c r="G105" t="n">
-        <v>188430.16</v>
+        <v>901226.1187758757</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2" t="n">
-        <v>43370.125</v>
+        <v>43548.91666666666</v>
       </c>
       <c r="B106" t="n">
-        <v>216.45</v>
+        <v>3958.09</v>
       </c>
       <c r="C106" t="n">
-        <v>218.09</v>
+        <v>3971.2</v>
       </c>
       <c r="D106" t="n">
-        <v>216.45</v>
+        <v>3955.24</v>
       </c>
       <c r="E106" t="n">
-        <v>217.94</v>
+        <v>3964.89</v>
       </c>
       <c r="F106" t="n">
-        <v>1014.9155</v>
+        <v>76.4452498</v>
       </c>
       <c r="G106" t="n">
-        <v>220470.25</v>
+        <v>302901.873098818</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2" t="n">
-        <v>43370.16666666666</v>
+        <v>43548.95833333334</v>
       </c>
       <c r="B107" t="n">
-        <v>218</v>
+        <v>3964.94</v>
       </c>
       <c r="C107" t="n">
-        <v>218.12</v>
+        <v>3972.96</v>
       </c>
       <c r="D107" t="n">
-        <v>216.68</v>
+        <v>3963</v>
       </c>
       <c r="E107" t="n">
-        <v>217.5</v>
+        <v>3965</v>
       </c>
       <c r="F107" t="n">
-        <v>1060.0266</v>
+        <v>71.93442073</v>
       </c>
       <c r="G107" t="n">
-        <v>230579.53</v>
+        <v>285403.2198071701</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2" t="n">
-        <v>43370.20833333334</v>
+        <v>43549</v>
       </c>
       <c r="B108" t="n">
-        <v>217.79</v>
+        <v>3965.67</v>
       </c>
       <c r="C108" t="n">
-        <v>218.44</v>
+        <v>3974</v>
       </c>
       <c r="D108" t="n">
-        <v>215.79</v>
+        <v>3964.48</v>
       </c>
       <c r="E108" t="n">
-        <v>216.24</v>
+        <v>3969.99</v>
       </c>
       <c r="F108" t="n">
-        <v>1075.4279</v>
+        <v>75.88893303</v>
       </c>
       <c r="G108" t="n">
-        <v>233335.9</v>
+        <v>301219.5579800254</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2" t="n">
-        <v>43370.25</v>
+        <v>43549.04166666666</v>
       </c>
       <c r="B109" t="n">
-        <v>216.47</v>
+        <v>3970.23</v>
       </c>
       <c r="C109" t="n">
-        <v>217.75</v>
+        <v>3970.91</v>
       </c>
       <c r="D109" t="n">
-        <v>215.49</v>
+        <v>3960.58</v>
       </c>
       <c r="E109" t="n">
-        <v>215.52</v>
+        <v>3961.88</v>
       </c>
       <c r="F109" t="n">
-        <v>468.1661</v>
+        <v>137.7041154</v>
       </c>
       <c r="G109" t="n">
-        <v>101327.37</v>
+        <v>545988.4542880289</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="n">
-        <v>43370.29166666666</v>
+        <v>43549.08333333334</v>
       </c>
       <c r="B110" t="n">
-        <v>215.49</v>
+        <v>3962.87</v>
       </c>
       <c r="C110" t="n">
-        <v>215.9</v>
+        <v>3972.91</v>
       </c>
       <c r="D110" t="n">
-        <v>213.94</v>
+        <v>3960.29</v>
       </c>
       <c r="E110" t="n">
-        <v>215.67</v>
+        <v>3972.11</v>
       </c>
       <c r="F110" t="n">
-        <v>412.71558</v>
+        <v>152.21745396</v>
       </c>
       <c r="G110" t="n">
-        <v>88721.14999999999</v>
+        <v>603469.1189729139</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2" t="n">
-        <v>43370.33333333334</v>
+        <v>43549.125</v>
       </c>
       <c r="B111" t="n">
-        <v>215.66</v>
+        <v>3972.91</v>
       </c>
       <c r="C111" t="n">
-        <v>216</v>
+        <v>3978.15</v>
       </c>
       <c r="D111" t="n">
-        <v>212.3</v>
+        <v>3969.26</v>
       </c>
       <c r="E111" t="n">
-        <v>213.42</v>
+        <v>3974.2</v>
       </c>
       <c r="F111" t="n">
-        <v>1463.9818</v>
+        <v>103.7756911</v>
       </c>
       <c r="G111" t="n">
-        <v>313330.4</v>
+        <v>412389.9956119664</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2" t="n">
-        <v>43370.375</v>
+        <v>43549.16666666666</v>
       </c>
       <c r="B112" t="n">
-        <v>213.4</v>
+        <v>3974.19</v>
       </c>
       <c r="C112" t="n">
-        <v>213.4</v>
+        <v>3978.46</v>
       </c>
       <c r="D112" t="n">
-        <v>210</v>
+        <v>3972.83</v>
       </c>
       <c r="E112" t="n">
-        <v>212.65</v>
+        <v>3976.62</v>
       </c>
       <c r="F112" t="n">
-        <v>2401.633</v>
+        <v>66.01371822</v>
       </c>
       <c r="G112" t="n">
-        <v>507297.9</v>
+        <v>262488.6521899948</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="n">
-        <v>43370.41666666666</v>
+        <v>43549.20833333334</v>
       </c>
       <c r="B113" t="n">
-        <v>212.42</v>
+        <v>3976.77</v>
       </c>
       <c r="C113" t="n">
-        <v>213.9</v>
+        <v>3977.31</v>
       </c>
       <c r="D113" t="n">
-        <v>211.8</v>
+        <v>3970</v>
       </c>
       <c r="E113" t="n">
-        <v>211.8</v>
+        <v>3972.43</v>
       </c>
       <c r="F113" t="n">
-        <v>3335.123</v>
+        <v>46.63152538</v>
       </c>
       <c r="G113" t="n">
-        <v>711278.3</v>
+        <v>185265.8418750258</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2" t="n">
-        <v>43370.45833333334</v>
+        <v>43549.25</v>
       </c>
       <c r="B114" t="n">
-        <v>212.29</v>
+        <v>3972.63</v>
       </c>
       <c r="C114" t="n">
-        <v>215.22</v>
+        <v>3976.38</v>
       </c>
       <c r="D114" t="n">
-        <v>211.91</v>
+        <v>3970.63</v>
       </c>
       <c r="E114" t="n">
-        <v>213.79</v>
+        <v>3973.56</v>
       </c>
       <c r="F114" t="n">
-        <v>966.4731399999999</v>
+        <v>72.34918147</v>
       </c>
       <c r="G114" t="n">
-        <v>206453.83</v>
+        <v>287471.438606087</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2" t="n">
-        <v>43370.5</v>
+        <v>43549.29166666666</v>
       </c>
       <c r="B115" t="n">
-        <v>213.74</v>
+        <v>3973.51</v>
       </c>
       <c r="C115" t="n">
-        <v>217.1</v>
+        <v>3974.01</v>
       </c>
       <c r="D115" t="n">
-        <v>213.53</v>
+        <v>3966.5</v>
       </c>
       <c r="E115" t="n">
-        <v>215.91</v>
+        <v>3971.74</v>
       </c>
       <c r="F115" t="n">
-        <v>1108.6646</v>
+        <v>146.73810218</v>
       </c>
       <c r="G115" t="n">
-        <v>238999.11</v>
+        <v>582514.6126986863</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2" t="n">
-        <v>43370.54166666666</v>
+        <v>43549.33333333334</v>
       </c>
       <c r="B116" t="n">
-        <v>215.86</v>
+        <v>3971.97</v>
       </c>
       <c r="C116" t="n">
-        <v>221.7</v>
+        <v>3972.23</v>
       </c>
       <c r="D116" t="n">
-        <v>215.71</v>
+        <v>3961.89</v>
       </c>
       <c r="E116" t="n">
-        <v>218.99</v>
+        <v>3968.94</v>
       </c>
       <c r="F116" t="n">
-        <v>2552.3015</v>
+        <v>246.61033122</v>
       </c>
       <c r="G116" t="n">
-        <v>558094.7</v>
+        <v>978415.0051036366</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2" t="n">
-        <v>43370.58333333334</v>
+        <v>43549.375</v>
       </c>
       <c r="B117" t="n">
-        <v>219.31</v>
+        <v>3967.53</v>
       </c>
       <c r="C117" t="n">
-        <v>220.48</v>
+        <v>3980.22</v>
       </c>
       <c r="D117" t="n">
-        <v>217.52</v>
+        <v>3965.75</v>
       </c>
       <c r="E117" t="n">
-        <v>218.61</v>
+        <v>3969.63</v>
       </c>
       <c r="F117" t="n">
-        <v>4506.0234</v>
+        <v>262.17322144</v>
       </c>
       <c r="G117" t="n">
-        <v>990225.9</v>
+        <v>1041763.02547435</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2" t="n">
-        <v>43370.625</v>
+        <v>43549.41666666666</v>
       </c>
       <c r="B118" t="n">
-        <v>218.69</v>
+        <v>3968.93</v>
       </c>
       <c r="C118" t="n">
-        <v>219.6</v>
+        <v>3976.18</v>
       </c>
       <c r="D118" t="n">
-        <v>217.08</v>
+        <v>3968.93</v>
       </c>
       <c r="E118" t="n">
-        <v>218.48</v>
+        <v>3972.63</v>
       </c>
       <c r="F118" t="n">
-        <v>1210.2705</v>
+        <v>239.41534407</v>
       </c>
       <c r="G118" t="n">
-        <v>264206.62</v>
+        <v>951255.7044223669</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2" t="n">
-        <v>43370.66666666666</v>
+        <v>43549.45833333334</v>
       </c>
       <c r="B119" t="n">
-        <v>218.52</v>
+        <v>3971.32</v>
       </c>
       <c r="C119" t="n">
-        <v>219.57</v>
+        <v>3975.52</v>
       </c>
       <c r="D119" t="n">
-        <v>216.21</v>
+        <v>3967.23</v>
       </c>
       <c r="E119" t="n">
-        <v>216.64</v>
+        <v>3969.71</v>
       </c>
       <c r="F119" t="n">
-        <v>736.56104</v>
+        <v>153.94863454</v>
       </c>
       <c r="G119" t="n">
-        <v>160434.5</v>
+        <v>611378.2666379254</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2" t="n">
-        <v>43370.70833333334</v>
+        <v>43549.5</v>
       </c>
       <c r="B120" t="n">
-        <v>216.89</v>
+        <v>3970.55</v>
       </c>
       <c r="C120" t="n">
-        <v>218.77</v>
+        <v>3971.99</v>
       </c>
       <c r="D120" t="n">
-        <v>216.89</v>
+        <v>3967.32</v>
       </c>
       <c r="E120" t="n">
-        <v>217.86</v>
+        <v>3969.44</v>
       </c>
       <c r="F120" t="n">
-        <v>443.8503</v>
+        <v>114.06582317</v>
       </c>
       <c r="G120" t="n">
-        <v>96712.21000000001</v>
+        <v>452799.1756498317</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2" t="n">
-        <v>43370.75</v>
+        <v>43549.54166666666</v>
       </c>
       <c r="B121" t="n">
-        <v>217.9</v>
+        <v>3968.58</v>
       </c>
       <c r="C121" t="n">
-        <v>218.91</v>
+        <v>3970.9</v>
       </c>
       <c r="D121" t="n">
-        <v>217</v>
+        <v>3952.54</v>
       </c>
       <c r="E121" t="n">
-        <v>218.69</v>
+        <v>3958.08</v>
       </c>
       <c r="F121" t="n">
-        <v>279.13434</v>
+        <v>334.82587805</v>
       </c>
       <c r="G121" t="n">
-        <v>60811.08</v>
+        <v>1326042.377720196</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2" t="n">
-        <v>43370.79166666666</v>
+        <v>43549.58333333334</v>
       </c>
       <c r="B122" t="n">
-        <v>218.35</v>
+        <v>3958.8</v>
       </c>
       <c r="C122" t="n">
-        <v>220.45</v>
+        <v>3968.28</v>
       </c>
       <c r="D122" t="n">
-        <v>218.14</v>
+        <v>3958.76</v>
       </c>
       <c r="E122" t="n">
-        <v>218.54</v>
+        <v>3960.94</v>
       </c>
       <c r="F122" t="n">
-        <v>876.9696</v>
+        <v>235.42993529</v>
       </c>
       <c r="G122" t="n">
-        <v>191981.52</v>
+        <v>933267.1919025712</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2" t="n">
-        <v>43370.83333333334</v>
+        <v>43549.625</v>
       </c>
       <c r="B123" t="n">
-        <v>218.5</v>
+        <v>3961.15</v>
       </c>
       <c r="C123" t="n">
-        <v>228.83</v>
+        <v>3967</v>
       </c>
       <c r="D123" t="n">
-        <v>217</v>
+        <v>3957.88</v>
       </c>
       <c r="E123" t="n">
-        <v>228.67</v>
+        <v>3965.5</v>
       </c>
       <c r="F123" t="n">
-        <v>3314.294</v>
+        <v>166.31880397</v>
       </c>
       <c r="G123" t="n">
-        <v>744500.4</v>
+        <v>659118.4424451096</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2" t="n">
-        <v>43370.875</v>
+        <v>43549.66666666666</v>
       </c>
       <c r="B124" t="n">
-        <v>228.22</v>
+        <v>3964.37</v>
       </c>
       <c r="C124" t="n">
-        <v>234</v>
+        <v>3967.86</v>
       </c>
       <c r="D124" t="n">
-        <v>227.37</v>
+        <v>3946.18</v>
       </c>
       <c r="E124" t="n">
-        <v>228</v>
+        <v>3948.81</v>
       </c>
       <c r="F124" t="n">
-        <v>6991.675</v>
+        <v>397.8720536</v>
       </c>
       <c r="G124" t="n">
-        <v>1605085.2</v>
+        <v>1574146.752783373</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2" t="n">
-        <v>43370.91666666666</v>
+        <v>43549.70833333334</v>
       </c>
       <c r="B125" t="n">
-        <v>227.86</v>
+        <v>3948.18</v>
       </c>
       <c r="C125" t="n">
-        <v>232.32</v>
+        <v>3958</v>
       </c>
       <c r="D125" t="n">
-        <v>227.86</v>
+        <v>3942.04</v>
       </c>
       <c r="E125" t="n">
-        <v>232.32</v>
+        <v>3954</v>
       </c>
       <c r="F125" t="n">
-        <v>4476.803</v>
+        <v>474.3803943</v>
       </c>
       <c r="G125" t="n">
-        <v>1024003.9</v>
+        <v>1874638.783006745</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2" t="n">
-        <v>43370.95833333334</v>
+        <v>43549.75</v>
       </c>
       <c r="B126" t="n">
-        <v>231.56</v>
+        <v>3954.7</v>
       </c>
       <c r="C126" t="n">
-        <v>232.12</v>
+        <v>3957.43</v>
       </c>
       <c r="D126" t="n">
-        <v>226.43</v>
+        <v>3942</v>
       </c>
       <c r="E126" t="n">
-        <v>227.48</v>
+        <v>3942.5</v>
       </c>
       <c r="F126" t="n">
-        <v>2579.7927</v>
+        <v>326.78319124</v>
       </c>
       <c r="G126" t="n">
-        <v>589325.6</v>
+        <v>1290595.0276606</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2" t="n">
-        <v>43371</v>
+        <v>43549.79166666666</v>
       </c>
       <c r="B127" t="n">
-        <v>227.35</v>
+        <v>3942.5</v>
       </c>
       <c r="C127" t="n">
-        <v>229.31</v>
+        <v>3950.32</v>
       </c>
       <c r="D127" t="n">
-        <v>227.35</v>
+        <v>3884</v>
       </c>
       <c r="E127" t="n">
-        <v>228.58</v>
+        <v>3892.95</v>
       </c>
       <c r="F127" t="n">
-        <v>959.251</v>
+        <v>1584.09187556</v>
       </c>
       <c r="G127" t="n">
-        <v>219258.94</v>
+        <v>6196581.314561117</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2" t="n">
-        <v>43371.04166666666</v>
+        <v>43549.83333333334</v>
       </c>
       <c r="B128" t="n">
-        <v>228.53</v>
+        <v>3892.17</v>
       </c>
       <c r="C128" t="n">
-        <v>231.43</v>
+        <v>3903.46</v>
       </c>
       <c r="D128" t="n">
-        <v>228.53</v>
+        <v>3850.45</v>
       </c>
       <c r="E128" t="n">
-        <v>229.5</v>
+        <v>3897.69</v>
       </c>
       <c r="F128" t="n">
-        <v>841.9796</v>
+        <v>950.59274737</v>
       </c>
       <c r="G128" t="n">
-        <v>193500.38</v>
+        <v>3688075.173307294</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2" t="n">
-        <v>43371.08333333334</v>
+        <v>43549.875</v>
       </c>
       <c r="B129" t="n">
-        <v>229.3</v>
+        <v>3899.97</v>
       </c>
       <c r="C129" t="n">
-        <v>230.68</v>
+        <v>3901</v>
       </c>
       <c r="D129" t="n">
-        <v>229.1</v>
+        <v>3872.14</v>
       </c>
       <c r="E129" t="n">
-        <v>230.11</v>
+        <v>3890.12</v>
       </c>
       <c r="F129" t="n">
-        <v>400.79407</v>
+        <v>206.73444771</v>
       </c>
       <c r="G129" t="n">
-        <v>92022.33</v>
+        <v>803098.0365048697</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2" t="n">
-        <v>43371.125</v>
+        <v>43549.91666666666</v>
       </c>
       <c r="B130" t="n">
-        <v>230.55</v>
+        <v>3890.74</v>
       </c>
       <c r="C130" t="n">
-        <v>231.46</v>
+        <v>3891.18</v>
       </c>
       <c r="D130" t="n">
-        <v>228.78</v>
+        <v>3879.97</v>
       </c>
       <c r="E130" t="n">
-        <v>228.78</v>
+        <v>3886.86</v>
       </c>
       <c r="F130" t="n">
-        <v>506.18008</v>
+        <v>126.75965136</v>
       </c>
       <c r="G130" t="n">
-        <v>116654.6</v>
+        <v>492396.412646754</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2" t="n">
-        <v>43371.16666666666</v>
+        <v>43549.95833333334</v>
       </c>
       <c r="B131" t="n">
-        <v>228.58</v>
+        <v>3885.08</v>
       </c>
       <c r="C131" t="n">
-        <v>229.59</v>
+        <v>3907.91</v>
       </c>
       <c r="D131" t="n">
-        <v>228.03</v>
+        <v>3882.76</v>
       </c>
       <c r="E131" t="n">
-        <v>229.34</v>
+        <v>3905</v>
       </c>
       <c r="F131" t="n">
-        <v>145.04027</v>
+        <v>139.81214943</v>
       </c>
       <c r="G131" t="n">
-        <v>33145.867</v>
+        <v>544489.8890956652</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2" t="n">
-        <v>43371.20833333334</v>
+        <v>43550</v>
       </c>
       <c r="B132" t="n">
-        <v>228.94</v>
+        <v>3905</v>
       </c>
       <c r="C132" t="n">
-        <v>229.93</v>
+        <v>3914.38</v>
       </c>
       <c r="D132" t="n">
-        <v>227.41</v>
+        <v>3902.24</v>
       </c>
       <c r="E132" t="n">
-        <v>229.23</v>
+        <v>3910.51</v>
       </c>
       <c r="F132" t="n">
-        <v>412.4813</v>
+        <v>227.74889124</v>
       </c>
       <c r="G132" t="n">
-        <v>94367.74000000001</v>
+        <v>890264.1102132309</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2" t="n">
-        <v>43371.25</v>
+        <v>43550.04166666666</v>
       </c>
       <c r="B133" t="n">
-        <v>229.23</v>
+        <v>3910</v>
       </c>
       <c r="C133" t="n">
-        <v>229.95</v>
+        <v>3915</v>
       </c>
       <c r="D133" t="n">
-        <v>228.58</v>
+        <v>3906.68</v>
       </c>
       <c r="E133" t="n">
-        <v>229.95</v>
+        <v>3907.36</v>
       </c>
       <c r="F133" t="n">
-        <v>169.71642</v>
+        <v>158.53042587</v>
       </c>
       <c r="G133" t="n">
-        <v>38879.914</v>
+        <v>620275.6808572013</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2" t="n">
-        <v>43371.29166666666</v>
+        <v>43550.08333333334</v>
       </c>
       <c r="B134" t="n">
-        <v>229.99</v>
+        <v>3906.68</v>
       </c>
       <c r="C134" t="n">
-        <v>233.65</v>
+        <v>3915</v>
       </c>
       <c r="D134" t="n">
-        <v>228.58</v>
+        <v>3906.68</v>
       </c>
       <c r="E134" t="n">
-        <v>229.36</v>
+        <v>3913.31</v>
       </c>
       <c r="F134" t="n">
-        <v>4993.4644</v>
+        <v>90.97689968</v>
       </c>
       <c r="G134" t="n">
-        <v>1153353.1</v>
+        <v>355823.3322909864</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2" t="n">
-        <v>43371.33333333334</v>
+        <v>43550.125</v>
       </c>
       <c r="B135" t="n">
-        <v>229.79</v>
+        <v>3915</v>
       </c>
       <c r="C135" t="n">
-        <v>232.2</v>
+        <v>3917.15</v>
       </c>
       <c r="D135" t="n">
-        <v>229.47</v>
+        <v>3911.01</v>
       </c>
       <c r="E135" t="n">
-        <v>229.88</v>
+        <v>3916.57</v>
       </c>
       <c r="F135" t="n">
-        <v>4415.1807</v>
+        <v>85.02904834</v>
       </c>
       <c r="G135" t="n">
-        <v>1017408.9</v>
+        <v>332882.6783389074</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2" t="n">
-        <v>43371.375</v>
+        <v>43550.16666666666</v>
       </c>
       <c r="B136" t="n">
-        <v>229.75</v>
+        <v>3915.45</v>
       </c>
       <c r="C136" t="n">
-        <v>229.75</v>
+        <v>3936.36</v>
       </c>
       <c r="D136" t="n">
-        <v>225.09</v>
+        <v>3907.95</v>
       </c>
       <c r="E136" t="n">
-        <v>227.13</v>
+        <v>3909.33</v>
       </c>
       <c r="F136" t="n">
-        <v>2311.6614</v>
+        <v>457.21816218</v>
       </c>
       <c r="G136" t="n">
-        <v>525041.4399999999</v>
+        <v>1792446.224221113</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2" t="n">
-        <v>43371.41666666666</v>
+        <v>43550.20833333334</v>
       </c>
       <c r="B137" t="n">
-        <v>226.95</v>
+        <v>3909.53</v>
       </c>
       <c r="C137" t="n">
-        <v>227.63</v>
+        <v>3915.92</v>
       </c>
       <c r="D137" t="n">
-        <v>220</v>
+        <v>3909.36</v>
       </c>
       <c r="E137" t="n">
-        <v>223.86</v>
+        <v>3911.73</v>
       </c>
       <c r="F137" t="n">
-        <v>4376.0767</v>
+        <v>62.69598057</v>
       </c>
       <c r="G137" t="n">
-        <v>975836.75</v>
+        <v>245247.057602945</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2" t="n">
-        <v>43371.45833333334</v>
+        <v>43550.25</v>
       </c>
       <c r="B138" t="n">
-        <v>223.78</v>
+        <v>3910.28</v>
       </c>
       <c r="C138" t="n">
-        <v>225.5</v>
+        <v>3914.4</v>
       </c>
       <c r="D138" t="n">
-        <v>222.38</v>
+        <v>3909.09</v>
       </c>
       <c r="E138" t="n">
-        <v>224.17</v>
+        <v>3909.09</v>
       </c>
       <c r="F138" t="n">
-        <v>1177.1366</v>
+        <v>40.4835129</v>
       </c>
       <c r="G138" t="n">
-        <v>263476.12</v>
+        <v>158355.0998029416</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2" t="n">
-        <v>43371.5</v>
+        <v>43550.29166666666</v>
       </c>
       <c r="B139" t="n">
-        <v>224.17</v>
+        <v>3910.63</v>
       </c>
       <c r="C139" t="n">
-        <v>226.33</v>
+        <v>3912.75</v>
       </c>
       <c r="D139" t="n">
-        <v>223.22</v>
+        <v>3887.34</v>
       </c>
       <c r="E139" t="n">
-        <v>223.7</v>
+        <v>3898.75</v>
       </c>
       <c r="F139" t="n">
-        <v>1403.7532</v>
+        <v>173.58139905</v>
       </c>
       <c r="G139" t="n">
-        <v>316053.53</v>
+        <v>677122.2546354973</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2" t="n">
-        <v>43371.54166666666</v>
+        <v>43550.33333333334</v>
       </c>
       <c r="B140" t="n">
-        <v>224.04</v>
+        <v>3898.57</v>
       </c>
       <c r="C140" t="n">
-        <v>224.98</v>
+        <v>3905.72</v>
       </c>
       <c r="D140" t="n">
-        <v>221.41</v>
+        <v>3889.04</v>
       </c>
       <c r="E140" t="n">
-        <v>222.79</v>
+        <v>3905.72</v>
       </c>
       <c r="F140" t="n">
-        <v>1675.779</v>
+        <v>137.90438467</v>
       </c>
       <c r="G140" t="n">
-        <v>373579.34</v>
+        <v>537521.8424803861</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2" t="n">
-        <v>43371.58333333334</v>
+        <v>43550.375</v>
       </c>
       <c r="B141" t="n">
-        <v>222.76</v>
+        <v>3905.72</v>
       </c>
       <c r="C141" t="n">
-        <v>226</v>
+        <v>3911</v>
       </c>
       <c r="D141" t="n">
-        <v>221.26</v>
+        <v>3898.32</v>
       </c>
       <c r="E141" t="n">
-        <v>225.65</v>
+        <v>3910.23</v>
       </c>
       <c r="F141" t="n">
-        <v>1326.2902</v>
+        <v>155.96059011</v>
       </c>
       <c r="G141" t="n">
-        <v>298115.3</v>
+        <v>609127.7798185918</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2" t="n">
-        <v>43371.625</v>
+        <v>43550.41666666666</v>
       </c>
       <c r="B142" t="n">
-        <v>225.18</v>
+        <v>3910</v>
       </c>
       <c r="C142" t="n">
-        <v>227.24</v>
+        <v>3910.37</v>
       </c>
       <c r="D142" t="n">
-        <v>224.73</v>
+        <v>3901.31</v>
       </c>
       <c r="E142" t="n">
-        <v>225.49</v>
+        <v>3901.96</v>
       </c>
       <c r="F142" t="n">
-        <v>1076.9614</v>
+        <v>213.17637703</v>
       </c>
       <c r="G142" t="n">
-        <v>243543</v>
+        <v>832651.5047125157</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2" t="n">
-        <v>43371.66666666666</v>
+        <v>43550.45833333334</v>
       </c>
       <c r="B143" t="n">
-        <v>225.81</v>
+        <v>3902.38</v>
       </c>
       <c r="C143" t="n">
-        <v>226.27</v>
+        <v>3907.72</v>
       </c>
       <c r="D143" t="n">
-        <v>224.52</v>
+        <v>3896.5</v>
       </c>
       <c r="E143" t="n">
-        <v>225.86</v>
+        <v>3898.6</v>
       </c>
       <c r="F143" t="n">
-        <v>630.7518</v>
+        <v>286.76459625</v>
       </c>
       <c r="G143" t="n">
-        <v>142220.73</v>
+        <v>1118888.54642795</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2" t="n">
-        <v>43371.70833333334</v>
+        <v>43550.5</v>
       </c>
       <c r="B144" t="n">
-        <v>225.37</v>
+        <v>3897.94</v>
       </c>
       <c r="C144" t="n">
-        <v>225.72</v>
+        <v>3900.98</v>
       </c>
       <c r="D144" t="n">
-        <v>224.22</v>
+        <v>3894.02</v>
       </c>
       <c r="E144" t="n">
-        <v>224.66</v>
+        <v>3898.2</v>
       </c>
       <c r="F144" t="n">
-        <v>200.24931</v>
+        <v>115.44164362</v>
       </c>
       <c r="G144" t="n">
-        <v>45015.625</v>
+        <v>450017.8766267878</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2" t="n">
-        <v>43371.75</v>
+        <v>43550.54166666666</v>
       </c>
       <c r="B145" t="n">
-        <v>224.58</v>
+        <v>3896.11</v>
       </c>
       <c r="C145" t="n">
-        <v>226.42</v>
+        <v>3901.35</v>
       </c>
       <c r="D145" t="n">
-        <v>224.54</v>
+        <v>3880.01</v>
       </c>
       <c r="E145" t="n">
-        <v>225.15</v>
+        <v>3887</v>
       </c>
       <c r="F145" t="n">
-        <v>1013.6713</v>
+        <v>219.27469472</v>
       </c>
       <c r="G145" t="n">
-        <v>228792.56</v>
+        <v>853479.1167527917</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2" t="n">
-        <v>43371.79166666666</v>
+        <v>43550.58333333334</v>
       </c>
       <c r="B146" t="n">
-        <v>225.16</v>
+        <v>3887.82</v>
       </c>
       <c r="C146" t="n">
-        <v>225.35</v>
+        <v>3898.62</v>
       </c>
       <c r="D146" t="n">
-        <v>223.83</v>
+        <v>3879.5</v>
       </c>
       <c r="E146" t="n">
-        <v>224.7</v>
+        <v>3887.88</v>
       </c>
       <c r="F146" t="n">
-        <v>810.7637</v>
+        <v>393.38026348</v>
       </c>
       <c r="G146" t="n">
-        <v>182141.1</v>
+        <v>1529491.399366115</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2" t="n">
-        <v>43371.83333333334</v>
+        <v>43550.625</v>
       </c>
       <c r="B147" t="n">
-        <v>224.43</v>
+        <v>3887.68</v>
       </c>
       <c r="C147" t="n">
-        <v>224.7</v>
+        <v>3911.43</v>
       </c>
       <c r="D147" t="n">
-        <v>214.32</v>
+        <v>3887.68</v>
       </c>
       <c r="E147" t="n">
-        <v>221.59</v>
+        <v>3909.32</v>
       </c>
       <c r="F147" t="n">
-        <v>8097.9517</v>
+        <v>278.86502648</v>
       </c>
       <c r="G147" t="n">
-        <v>1775764.6</v>
+        <v>1087738.472867426</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2" t="n">
-        <v>43371.875</v>
+        <v>43550.66666666666</v>
       </c>
       <c r="B148" t="n">
-        <v>221.78</v>
+        <v>3909.19</v>
       </c>
       <c r="C148" t="n">
-        <v>222.33</v>
+        <v>3920</v>
       </c>
       <c r="D148" t="n">
-        <v>218.76</v>
+        <v>3906.68</v>
       </c>
       <c r="E148" t="n">
-        <v>219.61</v>
+        <v>3914</v>
       </c>
       <c r="F148" t="n">
-        <v>2525.8857</v>
+        <v>300.86070018</v>
       </c>
       <c r="G148" t="n">
-        <v>555705.25</v>
+        <v>1177076.056257932</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2" t="n">
-        <v>43371.91666666666</v>
+        <v>43550.70833333334</v>
       </c>
       <c r="B149" t="n">
-        <v>219.84</v>
+        <v>3914</v>
       </c>
       <c r="C149" t="n">
-        <v>221.68</v>
+        <v>3919.05</v>
       </c>
       <c r="D149" t="n">
-        <v>217.98</v>
+        <v>3908.4</v>
       </c>
       <c r="E149" t="n">
-        <v>219.86</v>
+        <v>3911.4</v>
       </c>
       <c r="F149" t="n">
-        <v>574.9198</v>
+        <v>209.13050745</v>
       </c>
       <c r="G149" t="n">
-        <v>125996.39</v>
+        <v>818641.6562531916</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2" t="n">
-        <v>43371.95833333334</v>
+        <v>43550.75</v>
       </c>
       <c r="B150" t="n">
-        <v>219.61</v>
+        <v>3912.27</v>
       </c>
       <c r="C150" t="n">
-        <v>221</v>
+        <v>3916.22</v>
       </c>
       <c r="D150" t="n">
-        <v>218.69</v>
+        <v>3908.59</v>
       </c>
       <c r="E150" t="n">
-        <v>220.22</v>
+        <v>3911.11</v>
       </c>
       <c r="F150" t="n">
-        <v>717.43744</v>
+        <v>193.437093</v>
       </c>
       <c r="G150" t="n">
-        <v>157488.61</v>
+        <v>756991.8608260039</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2" t="n">
-        <v>43372</v>
+        <v>43550.79166666666</v>
       </c>
       <c r="B151" t="n">
-        <v>219.86</v>
+        <v>3909.39</v>
       </c>
       <c r="C151" t="n">
-        <v>221.54</v>
+        <v>3922</v>
       </c>
       <c r="D151" t="n">
-        <v>219.76</v>
+        <v>3909.37</v>
       </c>
       <c r="E151" t="n">
-        <v>220.94</v>
+        <v>3922</v>
       </c>
       <c r="F151" t="n">
-        <v>736.64325</v>
+        <v>121.24194415</v>
       </c>
       <c r="G151" t="n">
-        <v>162632.92</v>
+        <v>474757.3137842048</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2" t="n">
-        <v>43372.04166666666</v>
+        <v>43550.83333333334</v>
       </c>
       <c r="B152" t="n">
-        <v>220.64</v>
+        <v>3922</v>
       </c>
       <c r="C152" t="n">
-        <v>220.75</v>
+        <v>3922</v>
       </c>
       <c r="D152" t="n">
-        <v>217.53</v>
+        <v>3910.87</v>
       </c>
       <c r="E152" t="n">
-        <v>219.5</v>
+        <v>3913.9</v>
       </c>
       <c r="F152" t="n">
-        <v>453.2298</v>
+        <v>134.47151422</v>
       </c>
       <c r="G152" t="n">
-        <v>99269.22</v>
+        <v>526475.3997858895</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2" t="n">
-        <v>43372.08333333334</v>
+        <v>43550.875</v>
       </c>
       <c r="B153" t="n">
-        <v>219.11</v>
+        <v>3915.21</v>
       </c>
       <c r="C153" t="n">
-        <v>219.11</v>
+        <v>3917.98</v>
       </c>
       <c r="D153" t="n">
-        <v>214.72</v>
+        <v>3910.43</v>
       </c>
       <c r="E153" t="n">
-        <v>215.87</v>
+        <v>3910.43</v>
       </c>
       <c r="F153" t="n">
-        <v>385.99567</v>
+        <v>108.67267788</v>
       </c>
       <c r="G153" t="n">
-        <v>83421.97</v>
+        <v>425458.1774752657</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2" t="n">
-        <v>43372.125</v>
+        <v>43550.91666666666</v>
       </c>
       <c r="B154" t="n">
-        <v>215.81</v>
+        <v>3911.09</v>
       </c>
       <c r="C154" t="n">
-        <v>217.18</v>
+        <v>3912.21</v>
       </c>
       <c r="D154" t="n">
-        <v>214.86</v>
+        <v>3904.65</v>
       </c>
       <c r="E154" t="n">
-        <v>216.14</v>
+        <v>3908.79</v>
       </c>
       <c r="F154" t="n">
-        <v>508.78928</v>
+        <v>71.95483963</v>
       </c>
       <c r="G154" t="n">
-        <v>110038.516</v>
+        <v>281294.8511341755</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2" t="n">
-        <v>43372.16666666666</v>
+        <v>43550.95833333334</v>
       </c>
       <c r="B155" t="n">
-        <v>215.99</v>
+        <v>3908.66</v>
       </c>
       <c r="C155" t="n">
-        <v>216.74</v>
+        <v>3915.86</v>
       </c>
       <c r="D155" t="n">
-        <v>214.83</v>
+        <v>3907</v>
       </c>
       <c r="E155" t="n">
-        <v>216.26</v>
+        <v>3912.27</v>
       </c>
       <c r="F155" t="n">
-        <v>446.1181</v>
+        <v>200.05596973</v>
       </c>
       <c r="G155" t="n">
-        <v>96276.42</v>
+        <v>782366.0960766467</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2" t="n">
-        <v>43372.20833333334</v>
+        <v>43551</v>
       </c>
       <c r="B156" t="n">
-        <v>216.3</v>
+        <v>3912.29</v>
       </c>
       <c r="C156" t="n">
-        <v>217</v>
+        <v>3923.17</v>
       </c>
       <c r="D156" t="n">
-        <v>214.54</v>
+        <v>3909.32</v>
       </c>
       <c r="E156" t="n">
-        <v>216.3</v>
+        <v>3922.58</v>
       </c>
       <c r="F156" t="n">
-        <v>573.3308</v>
+        <v>107.48528662</v>
       </c>
       <c r="G156" t="n">
-        <v>123836.766</v>
+        <v>420868.5667612677</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2" t="n">
-        <v>43372.25</v>
+        <v>43551.04166666666</v>
       </c>
       <c r="B157" t="n">
-        <v>216.29</v>
+        <v>3922.58</v>
       </c>
       <c r="C157" t="n">
-        <v>216.29</v>
+        <v>3934.87</v>
       </c>
       <c r="D157" t="n">
-        <v>215.4</v>
+        <v>3912.19</v>
       </c>
       <c r="E157" t="n">
-        <v>215.8</v>
+        <v>3934.87</v>
       </c>
       <c r="F157" t="n">
-        <v>604.26715</v>
+        <v>186.26307662</v>
       </c>
       <c r="G157" t="n">
-        <v>130418.94</v>
+        <v>730311.1971863766</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2" t="n">
-        <v>43372.29166666666</v>
+        <v>43551.08333333334</v>
       </c>
       <c r="B158" t="n">
-        <v>215.81</v>
+        <v>3934.87</v>
       </c>
       <c r="C158" t="n">
-        <v>215.81</v>
+        <v>3980</v>
       </c>
       <c r="D158" t="n">
-        <v>212.54</v>
+        <v>3928.26</v>
       </c>
       <c r="E158" t="n">
-        <v>214.99</v>
+        <v>3970.44</v>
       </c>
       <c r="F158" t="n">
-        <v>4696.8438</v>
+        <v>796.02686647</v>
       </c>
       <c r="G158" t="n">
-        <v>1004822.9</v>
+        <v>3148824.980315567</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2" t="n">
-        <v>43372.33333333334</v>
+        <v>43551.125</v>
       </c>
       <c r="B159" t="n">
-        <v>214.92</v>
+        <v>3967.6</v>
       </c>
       <c r="C159" t="n">
-        <v>219.86</v>
+        <v>3977.22</v>
       </c>
       <c r="D159" t="n">
-        <v>214</v>
+        <v>3959.51</v>
       </c>
       <c r="E159" t="n">
-        <v>219.86</v>
+        <v>3975.58</v>
       </c>
       <c r="F159" t="n">
-        <v>1947.7501</v>
+        <v>198.34956674</v>
       </c>
       <c r="G159" t="n">
-        <v>421108.3</v>
+        <v>787488.571518875</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2" t="n">
-        <v>43372.375</v>
+        <v>43551.16666666666</v>
       </c>
       <c r="B160" t="n">
-        <v>219.82</v>
+        <v>3974.51</v>
       </c>
       <c r="C160" t="n">
-        <v>226.01</v>
+        <v>3980.28</v>
       </c>
       <c r="D160" t="n">
-        <v>219.72</v>
+        <v>3968.38</v>
       </c>
       <c r="E160" t="n">
-        <v>225.95</v>
+        <v>3978.87</v>
       </c>
       <c r="F160" t="n">
-        <v>2992.4346</v>
+        <v>323.64331128</v>
       </c>
       <c r="G160" t="n">
-        <v>669671</v>
+        <v>1286235.440456794</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2" t="n">
-        <v>43372.41666666666</v>
+        <v>43551.20833333334</v>
       </c>
       <c r="B161" t="n">
-        <v>225.98</v>
+        <v>3979.35</v>
       </c>
       <c r="C161" t="n">
-        <v>236.98</v>
+        <v>3987.99</v>
       </c>
       <c r="D161" t="n">
-        <v>225.98</v>
+        <v>3972</v>
       </c>
       <c r="E161" t="n">
-        <v>230.29</v>
+        <v>3977.82</v>
       </c>
       <c r="F161" t="n">
-        <v>4827.0435</v>
+        <v>250.36873391</v>
       </c>
       <c r="G161" t="n">
-        <v>1114085</v>
+        <v>996525.219931668</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2" t="n">
-        <v>43372.45833333334</v>
+        <v>43551.25</v>
       </c>
       <c r="B162" t="n">
-        <v>230.29</v>
+        <v>3977</v>
       </c>
       <c r="C162" t="n">
-        <v>231.63</v>
+        <v>3995.76</v>
       </c>
       <c r="D162" t="n">
-        <v>228.06</v>
+        <v>3977</v>
       </c>
       <c r="E162" t="n">
-        <v>228.8</v>
+        <v>3992.02</v>
       </c>
       <c r="F162" t="n">
-        <v>1720.8076</v>
+        <v>266.14204033</v>
       </c>
       <c r="G162" t="n">
-        <v>395911.75</v>
+        <v>1061004.368686459</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2" t="n">
-        <v>43372.5</v>
+        <v>43551.29166666666</v>
       </c>
       <c r="B163" t="n">
-        <v>228.81</v>
+        <v>3992</v>
       </c>
       <c r="C163" t="n">
-        <v>234.51</v>
+        <v>3992.94</v>
       </c>
       <c r="D163" t="n">
-        <v>228.81</v>
+        <v>3981.92</v>
       </c>
       <c r="E163" t="n">
-        <v>231.41</v>
+        <v>3985.2</v>
       </c>
       <c r="F163" t="n">
-        <v>2436.3872</v>
+        <v>200.4101569</v>
       </c>
       <c r="G163" t="n">
-        <v>564810.4399999999</v>
+        <v>798915.6441598936</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2" t="n">
-        <v>43372.54166666666</v>
+        <v>43551.33333333334</v>
       </c>
       <c r="B164" t="n">
-        <v>231.41</v>
+        <v>3982.69</v>
       </c>
       <c r="C164" t="n">
-        <v>233.63</v>
+        <v>3987.03</v>
       </c>
       <c r="D164" t="n">
-        <v>229.68</v>
+        <v>3980.01</v>
       </c>
       <c r="E164" t="n">
-        <v>230.45</v>
+        <v>3985.7</v>
       </c>
       <c r="F164" t="n">
-        <v>584.07245</v>
+        <v>122.74303642</v>
       </c>
       <c r="G164" t="n">
-        <v>135223.77</v>
+        <v>488925.8238041017</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2" t="n">
-        <v>43372.58333333334</v>
+        <v>43551.375</v>
       </c>
       <c r="B165" t="n">
-        <v>230.7</v>
+        <v>3984.78</v>
       </c>
       <c r="C165" t="n">
-        <v>232.15</v>
+        <v>3986.81</v>
       </c>
       <c r="D165" t="n">
-        <v>228.57</v>
+        <v>3974.36</v>
       </c>
       <c r="E165" t="n">
-        <v>229</v>
+        <v>3984.5</v>
       </c>
       <c r="F165" t="n">
-        <v>1879.4338</v>
+        <v>174.56805741</v>
       </c>
       <c r="G165" t="n">
-        <v>431946.97</v>
+        <v>695096.7967185458</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2" t="n">
-        <v>43372.625</v>
+        <v>43551.41666666666</v>
       </c>
       <c r="B166" t="n">
-        <v>229.28</v>
+        <v>3984.5</v>
       </c>
       <c r="C166" t="n">
-        <v>230.44</v>
+        <v>3991.84</v>
       </c>
       <c r="D166" t="n">
-        <v>225.88</v>
+        <v>3980</v>
       </c>
       <c r="E166" t="n">
-        <v>228.09</v>
+        <v>3984.9</v>
       </c>
       <c r="F166" t="n">
-        <v>940.2932</v>
+        <v>303.49081471</v>
       </c>
       <c r="G166" t="n">
-        <v>214691.89</v>
+        <v>1208780.915167755</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2" t="n">
-        <v>43372.66666666666</v>
+        <v>43551.45833333334</v>
       </c>
       <c r="B167" t="n">
-        <v>228.53</v>
+        <v>3984.9</v>
       </c>
       <c r="C167" t="n">
-        <v>231.35</v>
+        <v>4031.03</v>
       </c>
       <c r="D167" t="n">
-        <v>228.24</v>
+        <v>3984.9</v>
       </c>
       <c r="E167" t="n">
-        <v>230.64</v>
+        <v>4013</v>
       </c>
       <c r="F167" t="n">
-        <v>1242.4062</v>
+        <v>1493.13450701</v>
       </c>
       <c r="G167" t="n">
-        <v>286212.97</v>
+        <v>5991149.771743339</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2" t="n">
-        <v>43372.70833333334</v>
+        <v>43551.5</v>
       </c>
       <c r="B168" t="n">
-        <v>230.64</v>
+        <v>4013</v>
       </c>
       <c r="C168" t="n">
-        <v>231.08</v>
+        <v>4036.43</v>
       </c>
       <c r="D168" t="n">
-        <v>227.67</v>
+        <v>4005.68</v>
       </c>
       <c r="E168" t="n">
-        <v>228.76</v>
+        <v>4024.8</v>
       </c>
       <c r="F168" t="n">
-        <v>497.47372</v>
+        <v>826.68822499</v>
       </c>
       <c r="G168" t="n">
-        <v>114205.4</v>
+        <v>3325903.523366123</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2" t="n">
-        <v>43372.75</v>
+        <v>43551.54166666666</v>
       </c>
       <c r="B169" t="n">
-        <v>228.63</v>
+        <v>4024.8</v>
       </c>
       <c r="C169" t="n">
-        <v>230.66</v>
+        <v>4027.35</v>
       </c>
       <c r="D169" t="n">
-        <v>228.63</v>
+        <v>4007</v>
       </c>
       <c r="E169" t="n">
-        <v>230.49</v>
+        <v>4010.09</v>
       </c>
       <c r="F169" t="n">
-        <v>485.45157</v>
+        <v>430.82368843</v>
       </c>
       <c r="G169" t="n">
-        <v>111524.84</v>
+        <v>1730440.495877138</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2" t="n">
-        <v>43372.79166666666</v>
+        <v>43551.58333333334</v>
       </c>
       <c r="B170" t="n">
-        <v>230.46</v>
+        <v>4010.05</v>
       </c>
       <c r="C170" t="n">
-        <v>232.43</v>
+        <v>4015.62</v>
       </c>
       <c r="D170" t="n">
-        <v>229.13</v>
+        <v>4002.93</v>
       </c>
       <c r="E170" t="n">
-        <v>230.31</v>
+        <v>4012</v>
       </c>
       <c r="F170" t="n">
-        <v>1196.7772</v>
+        <v>533.58143573</v>
       </c>
       <c r="G170" t="n">
-        <v>276684.94</v>
+        <v>2138700.986481613</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2" t="n">
-        <v>43372.83333333334</v>
+        <v>43551.625</v>
       </c>
       <c r="B171" t="n">
-        <v>230.74</v>
+        <v>4012</v>
       </c>
       <c r="C171" t="n">
-        <v>233.53</v>
+        <v>4013.74</v>
       </c>
       <c r="D171" t="n">
-        <v>230.1</v>
+        <v>4007.93</v>
       </c>
       <c r="E171" t="n">
-        <v>232.44</v>
+        <v>4009.3</v>
       </c>
       <c r="F171" t="n">
-        <v>731.24805</v>
+        <v>107.24103063</v>
       </c>
       <c r="G171" t="n">
-        <v>169772.53</v>
+        <v>430129.2250837492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G171"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="n">
+        <v>43544.58333333334</v>
+      </c>
+      <c r="B2" t="n">
+        <v>138.05</v>
+      </c>
+      <c r="C2" t="n">
+        <v>138.22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>137.48</v>
+      </c>
+      <c r="E2" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1206.37795483</v>
+      </c>
+      <c r="G2" t="n">
+        <v>166325.780737908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="n">
+        <v>43544.625</v>
+      </c>
+      <c r="B3" t="n">
+        <v>137.49</v>
+      </c>
+      <c r="C3" t="n">
+        <v>137.81</v>
+      </c>
+      <c r="D3" t="n">
+        <v>137.34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>137.66</v>
+      </c>
+      <c r="F3" t="n">
+        <v>368.00159167</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50614.7799386645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="n">
+        <v>43544.66666666666</v>
+      </c>
+      <c r="B4" t="n">
+        <v>137.94</v>
+      </c>
+      <c r="C4" t="n">
+        <v>138.07</v>
+      </c>
+      <c r="D4" t="n">
+        <v>137.35</v>
+      </c>
+      <c r="E4" t="n">
+        <v>137.56</v>
+      </c>
+      <c r="F4" t="n">
+        <v>896.51689263</v>
+      </c>
+      <c r="G4" t="n">
+        <v>123420.150781962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="n">
+        <v>43544.70833333334</v>
+      </c>
+      <c r="B5" t="n">
+        <v>137.61</v>
+      </c>
+      <c r="C5" t="n">
+        <v>138.19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>137.19</v>
+      </c>
+      <c r="E5" t="n">
+        <v>137.59</v>
+      </c>
+      <c r="F5" t="n">
+        <v>944.12213617</v>
+      </c>
+      <c r="G5" t="n">
+        <v>129965.6264271447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="n">
+        <v>43544.75</v>
+      </c>
+      <c r="B6" t="n">
+        <v>137.54</v>
+      </c>
+      <c r="C6" t="n">
+        <v>137.73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>137.1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>137.19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>83.24037810999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11440.7684268448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="n">
+        <v>43544.79166666666</v>
+      </c>
+      <c r="B7" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>137.74</v>
+      </c>
+      <c r="D7" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>137.52</v>
+      </c>
+      <c r="F7" t="n">
+        <v>276.82814399</v>
+      </c>
+      <c r="G7" t="n">
+        <v>38061.2491602524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="n">
+        <v>43544.83333333334</v>
+      </c>
+      <c r="B8" t="n">
+        <v>137.39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>137.54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>137.14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>137.31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>319.40005333</v>
+      </c>
+      <c r="G8" t="n">
+        <v>43842.6515458271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="n">
+        <v>43544.875</v>
+      </c>
+      <c r="B9" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>137.75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>137.72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>121.09563125</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16672.6194448284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="n">
+        <v>43544.91666666666</v>
+      </c>
+      <c r="B10" t="n">
+        <v>137.81</v>
+      </c>
+      <c r="C10" t="n">
+        <v>137.97</v>
+      </c>
+      <c r="D10" t="n">
+        <v>137.54</v>
+      </c>
+      <c r="E10" t="n">
+        <v>137.62</v>
+      </c>
+      <c r="F10" t="n">
+        <v>445.27411029</v>
+      </c>
+      <c r="G10" t="n">
+        <v>61366.8535376903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="n">
+        <v>43544.95833333334</v>
+      </c>
+      <c r="B11" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>139.31</v>
+      </c>
+      <c r="D11" t="n">
+        <v>137.88</v>
+      </c>
+      <c r="E11" t="n">
+        <v>138.98</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3352.8681157</v>
+      </c>
+      <c r="G11" t="n">
+        <v>465557.4467947543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="n">
+        <v>43545</v>
+      </c>
+      <c r="B12" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>138.82</v>
+      </c>
+      <c r="D12" t="n">
+        <v>138.38</v>
+      </c>
+      <c r="E12" t="n">
+        <v>138.71</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1744.39426431</v>
+      </c>
+      <c r="G12" t="n">
+        <v>241854.434397578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="n">
+        <v>43545.04166666666</v>
+      </c>
+      <c r="B13" t="n">
+        <v>138.67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>139.06</v>
+      </c>
+      <c r="D13" t="n">
+        <v>138.53</v>
+      </c>
+      <c r="E13" t="n">
+        <v>138.85</v>
+      </c>
+      <c r="F13" t="n">
+        <v>418.34259523</v>
+      </c>
+      <c r="G13" t="n">
+        <v>58102.4798629753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="n">
+        <v>43545.08333333334</v>
+      </c>
+      <c r="B14" t="n">
+        <v>138.87</v>
+      </c>
+      <c r="C14" t="n">
+        <v>138.97</v>
+      </c>
+      <c r="D14" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>138.22</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1014.07943296</v>
+      </c>
+      <c r="G14" t="n">
+        <v>139963.3248456002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="n">
+        <v>43545.125</v>
+      </c>
+      <c r="B15" t="n">
+        <v>138.27</v>
+      </c>
+      <c r="C15" t="n">
+        <v>138.48</v>
+      </c>
+      <c r="D15" t="n">
+        <v>138.23</v>
+      </c>
+      <c r="E15" t="n">
+        <v>138.41</v>
+      </c>
+      <c r="F15" t="n">
+        <v>108.0060032</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14944.2966214314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="n">
+        <v>43545.16666666666</v>
+      </c>
+      <c r="B16" t="n">
+        <v>138.35</v>
+      </c>
+      <c r="C16" t="n">
+        <v>138.35</v>
+      </c>
+      <c r="D16" t="n">
+        <v>138.06</v>
+      </c>
+      <c r="E16" t="n">
+        <v>138.34</v>
+      </c>
+      <c r="F16" t="n">
+        <v>31.98334993</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4420.0382127926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="n">
+        <v>43545.20833333334</v>
+      </c>
+      <c r="B17" t="n">
+        <v>138.19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>138.17</v>
+      </c>
+      <c r="E17" t="n">
+        <v>138.45</v>
+      </c>
+      <c r="F17" t="n">
+        <v>64.66615364</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8942.6677840461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="n">
+        <v>43545.25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>138.32</v>
+      </c>
+      <c r="C18" t="n">
+        <v>138.44</v>
+      </c>
+      <c r="D18" t="n">
+        <v>138.11</v>
+      </c>
+      <c r="E18" t="n">
+        <v>138.29</v>
+      </c>
+      <c r="F18" t="n">
+        <v>46.25408613</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6396.3146910258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="n">
+        <v>43545.29166666666</v>
+      </c>
+      <c r="B19" t="n">
+        <v>138.27</v>
+      </c>
+      <c r="C19" t="n">
+        <v>138.58</v>
+      </c>
+      <c r="D19" t="n">
+        <v>138.27</v>
+      </c>
+      <c r="E19" t="n">
+        <v>138.46</v>
+      </c>
+      <c r="F19" t="n">
+        <v>178.03942739</v>
+      </c>
+      <c r="G19" t="n">
+        <v>24648.1745543702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="n">
+        <v>43545.33333333334</v>
+      </c>
+      <c r="B20" t="n">
+        <v>138.44</v>
+      </c>
+      <c r="C20" t="n">
+        <v>139.03</v>
+      </c>
+      <c r="D20" t="n">
+        <v>138.42</v>
+      </c>
+      <c r="E20" t="n">
+        <v>138.84</v>
+      </c>
+      <c r="F20" t="n">
+        <v>724.58882955</v>
+      </c>
+      <c r="G20" t="n">
+        <v>100638.2193076303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="n">
+        <v>43545.375</v>
+      </c>
+      <c r="B21" t="n">
+        <v>138.77</v>
+      </c>
+      <c r="C21" t="n">
+        <v>138.77</v>
+      </c>
+      <c r="D21" t="n">
+        <v>138.52</v>
+      </c>
+      <c r="E21" t="n">
+        <v>138.53</v>
+      </c>
+      <c r="F21" t="n">
+        <v>213.18375062</v>
+      </c>
+      <c r="G21" t="n">
+        <v>29565.4004258549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="n">
+        <v>43545.41666666666</v>
+      </c>
+      <c r="B22" t="n">
+        <v>138.53</v>
+      </c>
+      <c r="C22" t="n">
+        <v>138.66</v>
+      </c>
+      <c r="D22" t="n">
+        <v>138.31</v>
+      </c>
+      <c r="E22" t="n">
+        <v>138.37</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1296.49962904</v>
+      </c>
+      <c r="G22" t="n">
+        <v>179547.1641132693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="n">
+        <v>43545.45833333334</v>
+      </c>
+      <c r="B23" t="n">
+        <v>138.31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>138.38</v>
+      </c>
+      <c r="D23" t="n">
+        <v>138.04</v>
+      </c>
+      <c r="E23" t="n">
+        <v>138.07</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2123.26807089</v>
+      </c>
+      <c r="G23" t="n">
+        <v>293358.9225508101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="n">
+        <v>43545.5</v>
+      </c>
+      <c r="B24" t="n">
+        <v>138.12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>138.56</v>
+      </c>
+      <c r="D24" t="n">
+        <v>138.08</v>
+      </c>
+      <c r="E24" t="n">
+        <v>138.25</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5069.56221958</v>
+      </c>
+      <c r="G24" t="n">
+        <v>700478.7753132283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="n">
+        <v>43545.54166666666</v>
+      </c>
+      <c r="B25" t="n">
+        <v>138.31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>139.11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>137.74</v>
+      </c>
+      <c r="E25" t="n">
+        <v>137.91</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1174.60641176</v>
+      </c>
+      <c r="G25" t="n">
+        <v>162428.2553693151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="n">
+        <v>43545.58333333334</v>
+      </c>
+      <c r="B26" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>138.28</v>
+      </c>
+      <c r="D26" t="n">
+        <v>136.66</v>
+      </c>
+      <c r="E26" t="n">
+        <v>137.24</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2521.68621533</v>
+      </c>
+      <c r="G26" t="n">
+        <v>346431.6216516153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="n">
+        <v>43545.625</v>
+      </c>
+      <c r="B27" t="n">
+        <v>137.23</v>
+      </c>
+      <c r="C27" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>132</v>
+      </c>
+      <c r="E27" t="n">
+        <v>132.48</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7760.99007362</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1048208.527037126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="n">
+        <v>43545.66666666666</v>
+      </c>
+      <c r="B28" t="n">
+        <v>132.48</v>
+      </c>
+      <c r="C28" t="n">
+        <v>134.82</v>
+      </c>
+      <c r="D28" t="n">
+        <v>132.48</v>
+      </c>
+      <c r="E28" t="n">
+        <v>134.42</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4570.87454635</v>
+      </c>
+      <c r="G28" t="n">
+        <v>612862.0763372348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="n">
+        <v>43545.70833333334</v>
+      </c>
+      <c r="B29" t="n">
+        <v>134.42</v>
+      </c>
+      <c r="C29" t="n">
+        <v>134.42</v>
+      </c>
+      <c r="D29" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>134.39</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3173.68385647</v>
+      </c>
+      <c r="G29" t="n">
+        <v>424808.8836302268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="n">
+        <v>43545.75</v>
+      </c>
+      <c r="B30" t="n">
+        <v>134.29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>133.79</v>
+      </c>
+      <c r="E30" t="n">
+        <v>134.58</v>
+      </c>
+      <c r="F30" t="n">
+        <v>857.23390182</v>
+      </c>
+      <c r="G30" t="n">
+        <v>114933.509502565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="n">
+        <v>43545.79166666666</v>
+      </c>
+      <c r="B31" t="n">
+        <v>134.58</v>
+      </c>
+      <c r="C31" t="n">
+        <v>134.58</v>
+      </c>
+      <c r="D31" t="n">
+        <v>134.21</v>
+      </c>
+      <c r="E31" t="n">
+        <v>134.47</v>
+      </c>
+      <c r="F31" t="n">
+        <v>432.3211189</v>
+      </c>
+      <c r="G31" t="n">
+        <v>58095.1030840289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="n">
+        <v>43545.83333333334</v>
+      </c>
+      <c r="B32" t="n">
+        <v>134.47</v>
+      </c>
+      <c r="C32" t="n">
+        <v>134.81</v>
+      </c>
+      <c r="D32" t="n">
+        <v>134.34</v>
+      </c>
+      <c r="E32" t="n">
+        <v>134.69</v>
+      </c>
+      <c r="F32" t="n">
+        <v>531.394776</v>
+      </c>
+      <c r="G32" t="n">
+        <v>71575.3595673188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="n">
+        <v>43545.875</v>
+      </c>
+      <c r="B33" t="n">
+        <v>134.72</v>
+      </c>
+      <c r="C33" t="n">
+        <v>135.14</v>
+      </c>
+      <c r="D33" t="n">
+        <v>134.43</v>
+      </c>
+      <c r="E33" t="n">
+        <v>135.14</v>
+      </c>
+      <c r="F33" t="n">
+        <v>696.71034762</v>
+      </c>
+      <c r="G33" t="n">
+        <v>93793.6687395945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="n">
+        <v>43545.91666666666</v>
+      </c>
+      <c r="B34" t="n">
+        <v>135.14</v>
+      </c>
+      <c r="C34" t="n">
+        <v>135.58</v>
+      </c>
+      <c r="D34" t="n">
+        <v>135.14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>135.54</v>
+      </c>
+      <c r="F34" t="n">
+        <v>245.8325247</v>
+      </c>
+      <c r="G34" t="n">
+        <v>33287.2558975815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="n">
+        <v>43545.95833333334</v>
+      </c>
+      <c r="B35" t="n">
+        <v>135.33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>135.68</v>
+      </c>
+      <c r="D35" t="n">
+        <v>134.66</v>
+      </c>
+      <c r="E35" t="n">
+        <v>134.93</v>
+      </c>
+      <c r="F35" t="n">
+        <v>459.73287033</v>
+      </c>
+      <c r="G35" t="n">
+        <v>62078.4298858388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="n">
+        <v>43546</v>
+      </c>
+      <c r="B36" t="n">
+        <v>134.87</v>
+      </c>
+      <c r="C36" t="n">
+        <v>135.06</v>
+      </c>
+      <c r="D36" t="n">
+        <v>134.34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>134.49</v>
+      </c>
+      <c r="F36" t="n">
+        <v>433.29236242</v>
+      </c>
+      <c r="G36" t="n">
+        <v>58292.9774149179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="n">
+        <v>43546.04166666666</v>
+      </c>
+      <c r="B37" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>134</v>
+      </c>
+      <c r="E37" t="n">
+        <v>134.43</v>
+      </c>
+      <c r="F37" t="n">
+        <v>479.26451774</v>
+      </c>
+      <c r="G37" t="n">
+        <v>64303.7943267947</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="n">
+        <v>43546.08333333334</v>
+      </c>
+      <c r="B38" t="n">
+        <v>134.43</v>
+      </c>
+      <c r="C38" t="n">
+        <v>134.98</v>
+      </c>
+      <c r="D38" t="n">
+        <v>134.32</v>
+      </c>
+      <c r="E38" t="n">
+        <v>134.61</v>
+      </c>
+      <c r="F38" t="n">
+        <v>111.72627746</v>
+      </c>
+      <c r="G38" t="n">
+        <v>15051.4946681485</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="n">
+        <v>43546.125</v>
+      </c>
+      <c r="B39" t="n">
+        <v>134.47</v>
+      </c>
+      <c r="C39" t="n">
+        <v>135.06</v>
+      </c>
+      <c r="D39" t="n">
+        <v>134.47</v>
+      </c>
+      <c r="E39" t="n">
+        <v>134.66</v>
+      </c>
+      <c r="F39" t="n">
+        <v>402.47686003</v>
+      </c>
+      <c r="G39" t="n">
+        <v>54251.408424896</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="n">
+        <v>43546.16666666666</v>
+      </c>
+      <c r="B40" t="n">
+        <v>134.83</v>
+      </c>
+      <c r="C40" t="n">
+        <v>134.91</v>
+      </c>
+      <c r="D40" t="n">
+        <v>134.47</v>
+      </c>
+      <c r="E40" t="n">
+        <v>134.47</v>
+      </c>
+      <c r="F40" t="n">
+        <v>497.21616296</v>
+      </c>
+      <c r="G40" t="n">
+        <v>66983.8852453892</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="n">
+        <v>43546.20833333334</v>
+      </c>
+      <c r="B41" t="n">
+        <v>134.45</v>
+      </c>
+      <c r="C41" t="n">
+        <v>134.72</v>
+      </c>
+      <c r="D41" t="n">
+        <v>134.37</v>
+      </c>
+      <c r="E41" t="n">
+        <v>134.53</v>
+      </c>
+      <c r="F41" t="n">
+        <v>640.97330683</v>
+      </c>
+      <c r="G41" t="n">
+        <v>86285.4492126603</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="n">
+        <v>43546.25</v>
+      </c>
+      <c r="B42" t="n">
+        <v>134.67</v>
+      </c>
+      <c r="C42" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="D42" t="n">
+        <v>134.67</v>
+      </c>
+      <c r="E42" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="F42" t="n">
+        <v>17.96538207</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2420.9582843675</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="n">
+        <v>43546.29166666666</v>
+      </c>
+      <c r="B43" t="n">
+        <v>134.79</v>
+      </c>
+      <c r="C43" t="n">
+        <v>134.88</v>
+      </c>
+      <c r="D43" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>134.88</v>
+      </c>
+      <c r="F43" t="n">
+        <v>25.68383133</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3460.480934583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="n">
+        <v>43546.33333333334</v>
+      </c>
+      <c r="B44" t="n">
+        <v>135</v>
+      </c>
+      <c r="C44" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>134.79</v>
+      </c>
+      <c r="E44" t="n">
+        <v>135</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2038.78439655</v>
+      </c>
+      <c r="G44" t="n">
+        <v>275390.6422826122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="n">
+        <v>43546.375</v>
+      </c>
+      <c r="B45" t="n">
+        <v>135.24</v>
+      </c>
+      <c r="C45" t="n">
+        <v>135.79</v>
+      </c>
+      <c r="D45" t="n">
+        <v>135.13</v>
+      </c>
+      <c r="E45" t="n">
+        <v>135.65</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1167.23440012</v>
+      </c>
+      <c r="G45" t="n">
+        <v>158045.5029784906</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="n">
+        <v>43546.41666666666</v>
+      </c>
+      <c r="B46" t="n">
+        <v>135.51</v>
+      </c>
+      <c r="C46" t="n">
+        <v>136.13</v>
+      </c>
+      <c r="D46" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>135.37</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1249.80522007</v>
+      </c>
+      <c r="G46" t="n">
+        <v>169808.9459950357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="n">
+        <v>43546.45833333334</v>
+      </c>
+      <c r="B47" t="n">
+        <v>135.39</v>
+      </c>
+      <c r="C47" t="n">
+        <v>135.98</v>
+      </c>
+      <c r="D47" t="n">
+        <v>135.37</v>
+      </c>
+      <c r="E47" t="n">
+        <v>135.55</v>
+      </c>
+      <c r="F47" t="n">
+        <v>195.70422997</v>
+      </c>
+      <c r="G47" t="n">
+        <v>26536.6938798287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="n">
+        <v>43546.5</v>
+      </c>
+      <c r="B48" t="n">
+        <v>135.63</v>
+      </c>
+      <c r="C48" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="D48" t="n">
+        <v>135.26</v>
+      </c>
+      <c r="E48" t="n">
+        <v>135.52</v>
+      </c>
+      <c r="F48" t="n">
+        <v>669.64475552</v>
+      </c>
+      <c r="G48" t="n">
+        <v>90711.301421164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2" t="n">
+        <v>43546.54166666666</v>
+      </c>
+      <c r="B49" t="n">
+        <v>135.37</v>
+      </c>
+      <c r="C49" t="n">
+        <v>136.72</v>
+      </c>
+      <c r="D49" t="n">
+        <v>135.29</v>
+      </c>
+      <c r="E49" t="n">
+        <v>136.33</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8018.13365168</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1087974.366176292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2" t="n">
+        <v>43546.58333333334</v>
+      </c>
+      <c r="B50" t="n">
+        <v>136.37</v>
+      </c>
+      <c r="C50" t="n">
+        <v>136.85</v>
+      </c>
+      <c r="D50" t="n">
+        <v>135.94</v>
+      </c>
+      <c r="E50" t="n">
+        <v>136.28</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2373.0781145</v>
+      </c>
+      <c r="G50" t="n">
+        <v>323392.1302844733</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2" t="n">
+        <v>43546.625</v>
+      </c>
+      <c r="B51" t="n">
+        <v>136.31</v>
+      </c>
+      <c r="C51" t="n">
+        <v>136.74</v>
+      </c>
+      <c r="D51" t="n">
+        <v>136.15</v>
+      </c>
+      <c r="E51" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>585.10493357</v>
+      </c>
+      <c r="G51" t="n">
+        <v>79850.9158744639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2" t="n">
+        <v>43546.66666666666</v>
+      </c>
+      <c r="B52" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="C52" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>136.16</v>
+      </c>
+      <c r="E52" t="n">
+        <v>136.24</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1191.00980277</v>
+      </c>
+      <c r="G52" t="n">
+        <v>162453.7826922254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2" t="n">
+        <v>43546.70833333334</v>
+      </c>
+      <c r="B53" t="n">
+        <v>136.21</v>
+      </c>
+      <c r="C53" t="n">
+        <v>136.23</v>
+      </c>
+      <c r="D53" t="n">
+        <v>135.77</v>
+      </c>
+      <c r="E53" t="n">
+        <v>136.12</v>
+      </c>
+      <c r="F53" t="n">
+        <v>862.2656721200001</v>
+      </c>
+      <c r="G53" t="n">
+        <v>117353.9042939324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2" t="n">
+        <v>43546.75</v>
+      </c>
+      <c r="B54" t="n">
+        <v>136.32</v>
+      </c>
+      <c r="C54" t="n">
+        <v>137.01</v>
+      </c>
+      <c r="D54" t="n">
+        <v>136.11</v>
+      </c>
+      <c r="E54" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1187.89460175</v>
+      </c>
+      <c r="G54" t="n">
+        <v>162077.8220898746</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2" t="n">
+        <v>43546.79166666666</v>
+      </c>
+      <c r="B55" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="C55" t="n">
+        <v>136.85</v>
+      </c>
+      <c r="D55" t="n">
+        <v>136.52</v>
+      </c>
+      <c r="E55" t="n">
+        <v>136.52</v>
+      </c>
+      <c r="F55" t="n">
+        <v>132.68871529</v>
+      </c>
+      <c r="G55" t="n">
+        <v>18139.9714430148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2" t="n">
+        <v>43546.83333333334</v>
+      </c>
+      <c r="B56" t="n">
+        <v>136.52</v>
+      </c>
+      <c r="C56" t="n">
+        <v>136.73</v>
+      </c>
+      <c r="D56" t="n">
+        <v>136.37</v>
+      </c>
+      <c r="E56" t="n">
+        <v>136.72</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1576.5158037</v>
+      </c>
+      <c r="G56" t="n">
+        <v>215304.2262604866</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2" t="n">
+        <v>43546.875</v>
+      </c>
+      <c r="B57" t="n">
+        <v>136.71</v>
+      </c>
+      <c r="C57" t="n">
+        <v>136.72</v>
+      </c>
+      <c r="D57" t="n">
+        <v>135.84</v>
+      </c>
+      <c r="E57" t="n">
+        <v>135.84</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1843.37444342</v>
+      </c>
+      <c r="G57" t="n">
+        <v>251837.7714853407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2" t="n">
+        <v>43546.91666666666</v>
+      </c>
+      <c r="B58" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="C58" t="n">
+        <v>136.33</v>
+      </c>
+      <c r="D58" t="n">
+        <v>135.57</v>
+      </c>
+      <c r="E58" t="n">
+        <v>136.11</v>
+      </c>
+      <c r="F58" t="n">
+        <v>564.42754855</v>
+      </c>
+      <c r="G58" t="n">
+        <v>76703.78232198941</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2" t="n">
+        <v>43546.95833333334</v>
+      </c>
+      <c r="B59" t="n">
+        <v>136.11</v>
+      </c>
+      <c r="C59" t="n">
+        <v>136.11</v>
+      </c>
+      <c r="D59" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>98.76664434999999</v>
+      </c>
+      <c r="G59" t="n">
+        <v>13415.3863070246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2" t="n">
+        <v>43547</v>
+      </c>
+      <c r="B60" t="n">
+        <v>135.87</v>
+      </c>
+      <c r="C60" t="n">
+        <v>136.09</v>
+      </c>
+      <c r="D60" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="E60" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>168.79487482</v>
+      </c>
+      <c r="G60" t="n">
+        <v>22907.7303312793</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2" t="n">
+        <v>43547.04166666666</v>
+      </c>
+      <c r="B61" t="n">
+        <v>135.51</v>
+      </c>
+      <c r="C61" t="n">
+        <v>135.79</v>
+      </c>
+      <c r="D61" t="n">
+        <v>135.24</v>
+      </c>
+      <c r="E61" t="n">
+        <v>135.43</v>
+      </c>
+      <c r="F61" t="n">
+        <v>536.13725649</v>
+      </c>
+      <c r="G61" t="n">
+        <v>72612.0452134701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2" t="n">
+        <v>43547.08333333334</v>
+      </c>
+      <c r="B62" t="n">
+        <v>135.53</v>
+      </c>
+      <c r="C62" t="n">
+        <v>135.98</v>
+      </c>
+      <c r="D62" t="n">
+        <v>135.53</v>
+      </c>
+      <c r="E62" t="n">
+        <v>135.89</v>
+      </c>
+      <c r="F62" t="n">
+        <v>20.38448068</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2769.4002978173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="2" t="n">
+        <v>43547.125</v>
+      </c>
+      <c r="B63" t="n">
+        <v>135.94</v>
+      </c>
+      <c r="C63" t="n">
+        <v>136.76</v>
+      </c>
+      <c r="D63" t="n">
+        <v>135.86</v>
+      </c>
+      <c r="E63" t="n">
+        <v>136.76</v>
+      </c>
+      <c r="F63" t="n">
+        <v>394.68463873</v>
+      </c>
+      <c r="G63" t="n">
+        <v>53828.9523489155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2" t="n">
+        <v>43547.16666666666</v>
+      </c>
+      <c r="B64" t="n">
+        <v>136.61</v>
+      </c>
+      <c r="C64" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="D64" t="n">
+        <v>136.31</v>
+      </c>
+      <c r="E64" t="n">
+        <v>136.44</v>
+      </c>
+      <c r="F64" t="n">
+        <v>662.40405944</v>
+      </c>
+      <c r="G64" t="n">
+        <v>90457.2643383673</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="2" t="n">
+        <v>43547.20833333334</v>
+      </c>
+      <c r="B65" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>136.61</v>
+      </c>
+      <c r="D65" t="n">
+        <v>136.14</v>
+      </c>
+      <c r="E65" t="n">
+        <v>136.14</v>
+      </c>
+      <c r="F65" t="n">
+        <v>52.77610073</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7204.5591150836</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="2" t="n">
+        <v>43547.25</v>
+      </c>
+      <c r="B66" t="n">
+        <v>136.29</v>
+      </c>
+      <c r="C66" t="n">
+        <v>136.42</v>
+      </c>
+      <c r="D66" t="n">
+        <v>136.02</v>
+      </c>
+      <c r="E66" t="n">
+        <v>136.27</v>
+      </c>
+      <c r="F66" t="n">
+        <v>439.16195144</v>
+      </c>
+      <c r="G66" t="n">
+        <v>59805.3975337189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="2" t="n">
+        <v>43547.29166666666</v>
+      </c>
+      <c r="B67" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="C67" t="n">
+        <v>137.39</v>
+      </c>
+      <c r="D67" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="E67" t="n">
+        <v>137.08</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1483.35499495</v>
+      </c>
+      <c r="G67" t="n">
+        <v>203338.4821572126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="2" t="n">
+        <v>43547.33333333334</v>
+      </c>
+      <c r="B68" t="n">
+        <v>137.07</v>
+      </c>
+      <c r="C68" t="n">
+        <v>137.67</v>
+      </c>
+      <c r="D68" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>137.17</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1407.8346397</v>
+      </c>
+      <c r="G68" t="n">
+        <v>193106.2744820658</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="2" t="n">
+        <v>43547.375</v>
+      </c>
+      <c r="B69" t="n">
+        <v>137.21</v>
+      </c>
+      <c r="C69" t="n">
+        <v>137.66</v>
+      </c>
+      <c r="D69" t="n">
+        <v>136.95</v>
+      </c>
+      <c r="E69" t="n">
+        <v>137.46</v>
+      </c>
+      <c r="F69" t="n">
+        <v>657.47879181</v>
+      </c>
+      <c r="G69" t="n">
+        <v>90421.966431301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="2" t="n">
+        <v>43547.41666666666</v>
+      </c>
+      <c r="B70" t="n">
+        <v>137.45</v>
+      </c>
+      <c r="C70" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="D70" t="n">
+        <v>137.34</v>
+      </c>
+      <c r="E70" t="n">
+        <v>137.53</v>
+      </c>
+      <c r="F70" t="n">
+        <v>526.4977990900001</v>
+      </c>
+      <c r="G70" t="n">
+        <v>72393.6656271563</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="2" t="n">
+        <v>43547.45833333334</v>
+      </c>
+      <c r="B71" t="n">
+        <v>137.44</v>
+      </c>
+      <c r="C71" t="n">
+        <v>137.51</v>
+      </c>
+      <c r="D71" t="n">
+        <v>135.99</v>
+      </c>
+      <c r="E71" t="n">
+        <v>136.52</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1553.07422185</v>
+      </c>
+      <c r="G71" t="n">
+        <v>212280.5533948595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2" t="n">
+        <v>43547.5</v>
+      </c>
+      <c r="B72" t="n">
+        <v>136.69</v>
+      </c>
+      <c r="C72" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="D72" t="n">
+        <v>136.22</v>
+      </c>
+      <c r="E72" t="n">
+        <v>136.48</v>
+      </c>
+      <c r="F72" t="n">
+        <v>309.87968853</v>
+      </c>
+      <c r="G72" t="n">
+        <v>42301.5689356334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="2" t="n">
+        <v>43547.54166666666</v>
+      </c>
+      <c r="B73" t="n">
+        <v>136.36</v>
+      </c>
+      <c r="C73" t="n">
+        <v>136.67</v>
+      </c>
+      <c r="D73" t="n">
+        <v>135.61</v>
+      </c>
+      <c r="E73" t="n">
+        <v>136.08</v>
+      </c>
+      <c r="F73" t="n">
+        <v>579.69751474</v>
+      </c>
+      <c r="G73" t="n">
+        <v>78871.42515504929</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="2" t="n">
+        <v>43547.58333333334</v>
+      </c>
+      <c r="B74" t="n">
+        <v>135.95</v>
+      </c>
+      <c r="C74" t="n">
+        <v>136.12</v>
+      </c>
+      <c r="D74" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>948.8940452100001</v>
+      </c>
+      <c r="G74" t="n">
+        <v>128705.7876889923</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="2" t="n">
+        <v>43547.625</v>
+      </c>
+      <c r="B75" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="C75" t="n">
+        <v>135.78</v>
+      </c>
+      <c r="D75" t="n">
+        <v>135.23</v>
+      </c>
+      <c r="E75" t="n">
+        <v>135.65</v>
+      </c>
+      <c r="F75" t="n">
+        <v>182.66937831</v>
+      </c>
+      <c r="G75" t="n">
+        <v>24731.5162954495</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="2" t="n">
+        <v>43547.66666666666</v>
+      </c>
+      <c r="B76" t="n">
+        <v>135.67</v>
+      </c>
+      <c r="C76" t="n">
+        <v>136.24</v>
+      </c>
+      <c r="D76" t="n">
+        <v>135.63</v>
+      </c>
+      <c r="E76" t="n">
+        <v>136.17</v>
+      </c>
+      <c r="F76" t="n">
+        <v>815.55039035</v>
+      </c>
+      <c r="G76" t="n">
+        <v>110872.8034413043</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="2" t="n">
+        <v>43547.70833333334</v>
+      </c>
+      <c r="B77" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>136.22</v>
+      </c>
+      <c r="D77" t="n">
+        <v>135.89</v>
+      </c>
+      <c r="E77" t="n">
+        <v>135.95</v>
+      </c>
+      <c r="F77" t="n">
+        <v>272.8543373</v>
+      </c>
+      <c r="G77" t="n">
+        <v>37123.2555207929</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="2" t="n">
+        <v>43547.75</v>
+      </c>
+      <c r="B78" t="n">
+        <v>135.92</v>
+      </c>
+      <c r="C78" t="n">
+        <v>136.18</v>
+      </c>
+      <c r="D78" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="E78" t="n">
+        <v>135.98</v>
+      </c>
+      <c r="F78" t="n">
+        <v>156.1084195</v>
+      </c>
+      <c r="G78" t="n">
+        <v>21227.1279916492</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="2" t="n">
+        <v>43547.79166666666</v>
+      </c>
+      <c r="B79" t="n">
+        <v>136.02</v>
+      </c>
+      <c r="C79" t="n">
+        <v>136.18</v>
+      </c>
+      <c r="D79" t="n">
+        <v>135.66</v>
+      </c>
+      <c r="E79" t="n">
+        <v>136.18</v>
+      </c>
+      <c r="F79" t="n">
+        <v>192.09067509</v>
+      </c>
+      <c r="G79" t="n">
+        <v>26099.8270572718</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="2" t="n">
+        <v>43547.83333333334</v>
+      </c>
+      <c r="B80" t="n">
+        <v>135.91</v>
+      </c>
+      <c r="C80" t="n">
+        <v>135.93</v>
+      </c>
+      <c r="D80" t="n">
+        <v>135.77</v>
+      </c>
+      <c r="E80" t="n">
+        <v>135.93</v>
+      </c>
+      <c r="F80" t="n">
+        <v>224.80433597</v>
+      </c>
+      <c r="G80" t="n">
+        <v>30531.09164515021</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="2" t="n">
+        <v>43547.875</v>
+      </c>
+      <c r="B81" t="n">
+        <v>135.81</v>
+      </c>
+      <c r="C81" t="n">
+        <v>135.93</v>
+      </c>
+      <c r="D81" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="E81" t="n">
+        <v>135.91</v>
+      </c>
+      <c r="F81" t="n">
+        <v>479.30324222</v>
+      </c>
+      <c r="G81" t="n">
+        <v>65077.5346128529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2" t="n">
+        <v>43547.91666666666</v>
+      </c>
+      <c r="B82" t="n">
+        <v>135.81</v>
+      </c>
+      <c r="C82" t="n">
+        <v>136.21</v>
+      </c>
+      <c r="D82" t="n">
+        <v>135.81</v>
+      </c>
+      <c r="E82" t="n">
+        <v>135.98</v>
+      </c>
+      <c r="F82" t="n">
+        <v>226.89814914</v>
+      </c>
+      <c r="G82" t="n">
+        <v>30876.9145572228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="2" t="n">
+        <v>43547.95833333334</v>
+      </c>
+      <c r="B83" t="n">
+        <v>135.97</v>
+      </c>
+      <c r="C83" t="n">
+        <v>136.29</v>
+      </c>
+      <c r="D83" t="n">
+        <v>135.97</v>
+      </c>
+      <c r="E83" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>50.54406708</v>
+      </c>
+      <c r="G83" t="n">
+        <v>6884.0824267883</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="2" t="n">
+        <v>43548</v>
+      </c>
+      <c r="B84" t="n">
+        <v>136.31</v>
+      </c>
+      <c r="C84" t="n">
+        <v>136.64</v>
+      </c>
+      <c r="D84" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>136.63</v>
+      </c>
+      <c r="F84" t="n">
+        <v>97.7304755</v>
+      </c>
+      <c r="G84" t="n">
+        <v>13345.8995342701</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="2" t="n">
+        <v>43548.04166666666</v>
+      </c>
+      <c r="B85" t="n">
+        <v>136.32</v>
+      </c>
+      <c r="C85" t="n">
+        <v>136.47</v>
+      </c>
+      <c r="D85" t="n">
+        <v>136.06</v>
+      </c>
+      <c r="E85" t="n">
+        <v>136.18</v>
+      </c>
+      <c r="F85" t="n">
+        <v>251.37623315</v>
+      </c>
+      <c r="G85" t="n">
+        <v>34250.0671489914</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="2" t="n">
+        <v>43548.08333333334</v>
+      </c>
+      <c r="B86" t="n">
+        <v>136.11</v>
+      </c>
+      <c r="C86" t="n">
+        <v>136.11</v>
+      </c>
+      <c r="D86" t="n">
+        <v>135.78</v>
+      </c>
+      <c r="E86" t="n">
+        <v>135.84</v>
+      </c>
+      <c r="F86" t="n">
+        <v>175.31415242</v>
+      </c>
+      <c r="G86" t="n">
+        <v>23817.0028308466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="2" t="n">
+        <v>43548.125</v>
+      </c>
+      <c r="B87" t="n">
+        <v>135.63</v>
+      </c>
+      <c r="C87" t="n">
+        <v>135.63</v>
+      </c>
+      <c r="D87" t="n">
+        <v>135.08</v>
+      </c>
+      <c r="E87" t="n">
+        <v>135.45</v>
+      </c>
+      <c r="F87" t="n">
+        <v>623.37392173</v>
+      </c>
+      <c r="G87" t="n">
+        <v>84416.84920286039</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="2" t="n">
+        <v>43548.16666666666</v>
+      </c>
+      <c r="B88" t="n">
+        <v>135.29</v>
+      </c>
+      <c r="C88" t="n">
+        <v>136.12</v>
+      </c>
+      <c r="D88" t="n">
+        <v>135.29</v>
+      </c>
+      <c r="E88" t="n">
+        <v>135.99</v>
+      </c>
+      <c r="F88" t="n">
+        <v>171.28757162</v>
+      </c>
+      <c r="G88" t="n">
+        <v>23240.0236640484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="2" t="n">
+        <v>43548.20833333334</v>
+      </c>
+      <c r="B89" t="n">
+        <v>135.71</v>
+      </c>
+      <c r="C89" t="n">
+        <v>135.85</v>
+      </c>
+      <c r="D89" t="n">
+        <v>135.63</v>
+      </c>
+      <c r="E89" t="n">
+        <v>135.72</v>
+      </c>
+      <c r="F89" t="n">
+        <v>40.78553882</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5536.3477840017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="2" t="n">
+        <v>43548.25</v>
+      </c>
+      <c r="B90" t="n">
+        <v>135.64</v>
+      </c>
+      <c r="C90" t="n">
+        <v>135.65</v>
+      </c>
+      <c r="D90" t="n">
+        <v>135.17</v>
+      </c>
+      <c r="E90" t="n">
+        <v>135.61</v>
+      </c>
+      <c r="F90" t="n">
+        <v>726.00000015</v>
+      </c>
+      <c r="G90" t="n">
+        <v>98356.83583505701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="2" t="n">
+        <v>43548.29166666666</v>
+      </c>
+      <c r="B91" t="n">
+        <v>135.59</v>
+      </c>
+      <c r="C91" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="D91" t="n">
+        <v>135.25</v>
+      </c>
+      <c r="E91" t="n">
+        <v>135.62</v>
+      </c>
+      <c r="F91" t="n">
+        <v>115.03235441</v>
+      </c>
+      <c r="G91" t="n">
+        <v>15587.829266971</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="2" t="n">
+        <v>43548.33333333334</v>
+      </c>
+      <c r="B92" t="n">
+        <v>135.53</v>
+      </c>
+      <c r="C92" t="n">
+        <v>135.69</v>
+      </c>
+      <c r="D92" t="n">
+        <v>135.26</v>
+      </c>
+      <c r="E92" t="n">
+        <v>135.37</v>
+      </c>
+      <c r="F92" t="n">
+        <v>136.17933462</v>
+      </c>
+      <c r="G92" t="n">
+        <v>18439.0587221592</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="2" t="n">
+        <v>43548.375</v>
+      </c>
+      <c r="B93" t="n">
+        <v>135.62</v>
+      </c>
+      <c r="C93" t="n">
+        <v>135.89</v>
+      </c>
+      <c r="D93" t="n">
+        <v>135.42</v>
+      </c>
+      <c r="E93" t="n">
+        <v>135.89</v>
+      </c>
+      <c r="F93" t="n">
+        <v>209.04503372</v>
+      </c>
+      <c r="G93" t="n">
+        <v>28342.4925208572</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="2" t="n">
+        <v>43548.41666666666</v>
+      </c>
+      <c r="B94" t="n">
+        <v>135.97</v>
+      </c>
+      <c r="C94" t="n">
+        <v>136.54</v>
+      </c>
+      <c r="D94" t="n">
+        <v>135.85</v>
+      </c>
+      <c r="E94" t="n">
+        <v>136.03</v>
+      </c>
+      <c r="F94" t="n">
+        <v>538.88023691</v>
+      </c>
+      <c r="G94" t="n">
+        <v>73366.7785122182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="2" t="n">
+        <v>43548.45833333334</v>
+      </c>
+      <c r="B95" t="n">
+        <v>135.94</v>
+      </c>
+      <c r="C95" t="n">
+        <v>136.19</v>
+      </c>
+      <c r="D95" t="n">
+        <v>135.94</v>
+      </c>
+      <c r="E95" t="n">
+        <v>136.04</v>
+      </c>
+      <c r="F95" t="n">
+        <v>299.29200236</v>
+      </c>
+      <c r="G95" t="n">
+        <v>40723.5444379997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="2" t="n">
+        <v>43548.5</v>
+      </c>
+      <c r="B96" t="n">
+        <v>136.09</v>
+      </c>
+      <c r="C96" t="n">
+        <v>136.41</v>
+      </c>
+      <c r="D96" t="n">
+        <v>135.73</v>
+      </c>
+      <c r="E96" t="n">
+        <v>135.78</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1430.86322126</v>
+      </c>
+      <c r="G96" t="n">
+        <v>194929.6704414187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="2" t="n">
+        <v>43548.54166666666</v>
+      </c>
+      <c r="B97" t="n">
+        <v>135.78</v>
+      </c>
+      <c r="C97" t="n">
+        <v>136.08</v>
+      </c>
+      <c r="D97" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="E97" t="n">
+        <v>135.92</v>
+      </c>
+      <c r="F97" t="n">
+        <v>270.91833501</v>
+      </c>
+      <c r="G97" t="n">
+        <v>36812.5375839269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="2" t="n">
+        <v>43548.58333333334</v>
+      </c>
+      <c r="B98" t="n">
+        <v>135.79</v>
+      </c>
+      <c r="C98" t="n">
+        <v>136.22</v>
+      </c>
+      <c r="D98" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="E98" t="n">
+        <v>136.05</v>
+      </c>
+      <c r="F98" t="n">
+        <v>333.71126684</v>
+      </c>
+      <c r="G98" t="n">
+        <v>45389.2752304864</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="2" t="n">
+        <v>43548.625</v>
+      </c>
+      <c r="B99" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>135.82</v>
+      </c>
+      <c r="E99" t="n">
+        <v>136.08</v>
+      </c>
+      <c r="F99" t="n">
+        <v>406.61507716</v>
+      </c>
+      <c r="G99" t="n">
+        <v>55334.0613414708</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="2" t="n">
+        <v>43548.66666666666</v>
+      </c>
+      <c r="B100" t="n">
+        <v>135.91</v>
+      </c>
+      <c r="C100" t="n">
+        <v>135.91</v>
+      </c>
+      <c r="D100" t="n">
+        <v>135.62</v>
+      </c>
+      <c r="E100" t="n">
+        <v>135.62</v>
+      </c>
+      <c r="F100" t="n">
+        <v>56.01091791</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7598.9520106085</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="2" t="n">
+        <v>43548.70833333334</v>
+      </c>
+      <c r="B101" t="n">
+        <v>135.75</v>
+      </c>
+      <c r="C101" t="n">
+        <v>135.75</v>
+      </c>
+      <c r="D101" t="n">
+        <v>135.11</v>
+      </c>
+      <c r="E101" t="n">
+        <v>135.54</v>
+      </c>
+      <c r="F101" t="n">
+        <v>814.84878269</v>
+      </c>
+      <c r="G101" t="n">
+        <v>110380.5666562511</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="2" t="n">
+        <v>43548.75</v>
+      </c>
+      <c r="B102" t="n">
+        <v>135.52</v>
+      </c>
+      <c r="C102" t="n">
+        <v>135.65</v>
+      </c>
+      <c r="D102" t="n">
+        <v>134.15</v>
+      </c>
+      <c r="E102" t="n">
+        <v>135.05</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2610.03330264</v>
+      </c>
+      <c r="G102" t="n">
+        <v>351444.1673805359</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="2" t="n">
+        <v>43548.79166666666</v>
+      </c>
+      <c r="B103" t="n">
+        <v>135.01</v>
+      </c>
+      <c r="C103" t="n">
+        <v>135.01</v>
+      </c>
+      <c r="D103" t="n">
+        <v>134.55</v>
+      </c>
+      <c r="E103" t="n">
+        <v>134.69</v>
+      </c>
+      <c r="F103" t="n">
+        <v>275.00181532</v>
+      </c>
+      <c r="G103" t="n">
+        <v>37074.6571498687</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="2" t="n">
+        <v>43548.83333333334</v>
+      </c>
+      <c r="B104" t="n">
+        <v>134.76</v>
+      </c>
+      <c r="C104" t="n">
+        <v>134.91</v>
+      </c>
+      <c r="D104" t="n">
+        <v>134.38</v>
+      </c>
+      <c r="E104" t="n">
+        <v>134.91</v>
+      </c>
+      <c r="F104" t="n">
+        <v>55.82129467</v>
+      </c>
+      <c r="G104" t="n">
+        <v>7521.2393963851</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="2" t="n">
+        <v>43548.875</v>
+      </c>
+      <c r="B105" t="n">
+        <v>134.61</v>
+      </c>
+      <c r="C105" t="n">
+        <v>134.97</v>
+      </c>
+      <c r="D105" t="n">
+        <v>134.25</v>
+      </c>
+      <c r="E105" t="n">
+        <v>134.91</v>
+      </c>
+      <c r="F105" t="n">
+        <v>825.88600959</v>
+      </c>
+      <c r="G105" t="n">
+        <v>111186.230366605</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="2" t="n">
+        <v>43548.91666666666</v>
+      </c>
+      <c r="B106" t="n">
+        <v>134.97</v>
+      </c>
+      <c r="C106" t="n">
+        <v>135.21</v>
+      </c>
+      <c r="D106" t="n">
+        <v>134.77</v>
+      </c>
+      <c r="E106" t="n">
+        <v>135.21</v>
+      </c>
+      <c r="F106" t="n">
+        <v>322.33595052</v>
+      </c>
+      <c r="G106" t="n">
+        <v>43486.9067683207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="2" t="n">
+        <v>43548.95833333334</v>
+      </c>
+      <c r="B107" t="n">
+        <v>135.07</v>
+      </c>
+      <c r="C107" t="n">
+        <v>135.76</v>
+      </c>
+      <c r="D107" t="n">
+        <v>134.98</v>
+      </c>
+      <c r="E107" t="n">
+        <v>135.33</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1812.90762836</v>
+      </c>
+      <c r="G107" t="n">
+        <v>245553.4044727551</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="B108" t="n">
+        <v>135.29</v>
+      </c>
+      <c r="C108" t="n">
+        <v>135.52</v>
+      </c>
+      <c r="D108" t="n">
+        <v>135.28</v>
+      </c>
+      <c r="E108" t="n">
+        <v>135.29</v>
+      </c>
+      <c r="F108" t="n">
+        <v>258.55709911</v>
+      </c>
+      <c r="G108" t="n">
+        <v>35007.4403806978</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="2" t="n">
+        <v>43549.04166666666</v>
+      </c>
+      <c r="B109" t="n">
+        <v>135.31</v>
+      </c>
+      <c r="C109" t="n">
+        <v>135.41</v>
+      </c>
+      <c r="D109" t="n">
+        <v>135.03</v>
+      </c>
+      <c r="E109" t="n">
+        <v>135.03</v>
+      </c>
+      <c r="F109" t="n">
+        <v>540.75396109</v>
+      </c>
+      <c r="G109" t="n">
+        <v>73154.8523541972</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="2" t="n">
+        <v>43549.08333333334</v>
+      </c>
+      <c r="B110" t="n">
+        <v>135.14</v>
+      </c>
+      <c r="C110" t="n">
+        <v>135.55</v>
+      </c>
+      <c r="D110" t="n">
+        <v>135.01</v>
+      </c>
+      <c r="E110" t="n">
+        <v>135.55</v>
+      </c>
+      <c r="F110" t="n">
+        <v>210.6606357</v>
+      </c>
+      <c r="G110" t="n">
+        <v>28512.9560086913</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="2" t="n">
+        <v>43549.125</v>
+      </c>
+      <c r="B111" t="n">
+        <v>135.53</v>
+      </c>
+      <c r="C111" t="n">
+        <v>136.25</v>
+      </c>
+      <c r="D111" t="n">
+        <v>135.53</v>
+      </c>
+      <c r="E111" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="F111" t="n">
+        <v>806.43812332</v>
+      </c>
+      <c r="G111" t="n">
+        <v>109612.6788142616</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="2" t="n">
+        <v>43549.16666666666</v>
+      </c>
+      <c r="B112" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="C112" t="n">
+        <v>135.68</v>
+      </c>
+      <c r="D112" t="n">
+        <v>135.47</v>
+      </c>
+      <c r="E112" t="n">
+        <v>135.51</v>
+      </c>
+      <c r="F112" t="n">
+        <v>689.14158308</v>
+      </c>
+      <c r="G112" t="n">
+        <v>93395.2338475562</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="2" t="n">
+        <v>43549.20833333334</v>
+      </c>
+      <c r="B113" t="n">
+        <v>135.57</v>
+      </c>
+      <c r="C113" t="n">
+        <v>135.72</v>
+      </c>
+      <c r="D113" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="F113" t="n">
+        <v>303.78055813</v>
+      </c>
+      <c r="G113" t="n">
+        <v>41152.3295081321</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="2" t="n">
+        <v>43549.25</v>
+      </c>
+      <c r="B114" t="n">
+        <v>135.43</v>
+      </c>
+      <c r="C114" t="n">
+        <v>135.56</v>
+      </c>
+      <c r="D114" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>135.25</v>
+      </c>
+      <c r="F114" t="n">
+        <v>983.76541004</v>
+      </c>
+      <c r="G114" t="n">
+        <v>133035.433012093</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="2" t="n">
+        <v>43549.29166666666</v>
+      </c>
+      <c r="B115" t="n">
+        <v>135.45</v>
+      </c>
+      <c r="C115" t="n">
+        <v>135.68</v>
+      </c>
+      <c r="D115" t="n">
+        <v>135.29</v>
+      </c>
+      <c r="E115" t="n">
+        <v>135.64</v>
+      </c>
+      <c r="F115" t="n">
+        <v>199.71478248</v>
+      </c>
+      <c r="G115" t="n">
+        <v>27069.937945303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="2" t="n">
+        <v>43549.33333333334</v>
+      </c>
+      <c r="B116" t="n">
+        <v>135.49</v>
+      </c>
+      <c r="C116" t="n">
+        <v>135.49</v>
+      </c>
+      <c r="D116" t="n">
+        <v>135.01</v>
+      </c>
+      <c r="E116" t="n">
+        <v>135.34</v>
+      </c>
+      <c r="F116" t="n">
+        <v>180.2115969</v>
+      </c>
+      <c r="G116" t="n">
+        <v>24367.1332537578</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="2" t="n">
+        <v>43549.375</v>
+      </c>
+      <c r="B117" t="n">
+        <v>135.09</v>
+      </c>
+      <c r="C117" t="n">
+        <v>135.27</v>
+      </c>
+      <c r="D117" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>247.47975708</v>
+      </c>
+      <c r="G117" t="n">
+        <v>33426.1642526785</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="2" t="n">
+        <v>43549.41666666666</v>
+      </c>
+      <c r="B118" t="n">
+        <v>135.03</v>
+      </c>
+      <c r="C118" t="n">
+        <v>135.36</v>
+      </c>
+      <c r="D118" t="n">
+        <v>135.03</v>
+      </c>
+      <c r="E118" t="n">
+        <v>135.28</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1530.55627361</v>
+      </c>
+      <c r="G118" t="n">
+        <v>206895.0742904195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2" t="n">
+        <v>43549.45833333334</v>
+      </c>
+      <c r="B119" t="n">
+        <v>135.28</v>
+      </c>
+      <c r="C119" t="n">
+        <v>135.28</v>
+      </c>
+      <c r="D119" t="n">
+        <v>134.92</v>
+      </c>
+      <c r="E119" t="n">
+        <v>135.06</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2561.99871576</v>
+      </c>
+      <c r="G119" t="n">
+        <v>346041.1246000273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2" t="n">
+        <v>43549.5</v>
+      </c>
+      <c r="B120" t="n">
+        <v>135.05</v>
+      </c>
+      <c r="C120" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>135.02</v>
+      </c>
+      <c r="E120" t="n">
+        <v>135.09</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2516.89255796</v>
+      </c>
+      <c r="G120" t="n">
+        <v>340062.3800418292</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2" t="n">
+        <v>43549.54166666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>135.03</v>
+      </c>
+      <c r="C121" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>134.41</v>
+      </c>
+      <c r="E121" t="n">
+        <v>134.64</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3102.51319369</v>
+      </c>
+      <c r="G121" t="n">
+        <v>417950.1685586189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2" t="n">
+        <v>43549.58333333334</v>
+      </c>
+      <c r="B122" t="n">
+        <v>134.64</v>
+      </c>
+      <c r="C122" t="n">
+        <v>134.93</v>
+      </c>
+      <c r="D122" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>134.63</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3619.69378605</v>
+      </c>
+      <c r="G122" t="n">
+        <v>487407.2239265991</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2" t="n">
+        <v>43549.625</v>
+      </c>
+      <c r="B123" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="D123" t="n">
+        <v>134.41</v>
+      </c>
+      <c r="E123" t="n">
+        <v>134.49</v>
+      </c>
+      <c r="F123" t="n">
+        <v>903.26276749</v>
+      </c>
+      <c r="G123" t="n">
+        <v>121550.2794978155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2" t="n">
+        <v>43549.66666666666</v>
+      </c>
+      <c r="B124" t="n">
+        <v>134.49</v>
+      </c>
+      <c r="C124" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>133.08</v>
+      </c>
+      <c r="E124" t="n">
+        <v>133.32</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2549.29074945</v>
+      </c>
+      <c r="G124" t="n">
+        <v>341367.9385776402</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2" t="n">
+        <v>43549.70833333334</v>
+      </c>
+      <c r="B125" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>133.85</v>
+      </c>
+      <c r="D125" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1417.68425651</v>
+      </c>
+      <c r="G125" t="n">
+        <v>188891.923653912</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2" t="n">
+        <v>43549.75</v>
+      </c>
+      <c r="B126" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="C126" t="n">
+        <v>133.93</v>
+      </c>
+      <c r="D126" t="n">
+        <v>132.99</v>
+      </c>
+      <c r="E126" t="n">
+        <v>133.06</v>
+      </c>
+      <c r="F126" t="n">
+        <v>880.84239772</v>
+      </c>
+      <c r="G126" t="n">
+        <v>117387.0085690232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2" t="n">
+        <v>43549.79166666666</v>
+      </c>
+      <c r="B127" t="n">
+        <v>133.09</v>
+      </c>
+      <c r="C127" t="n">
+        <v>133.21</v>
+      </c>
+      <c r="D127" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>131.76</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2665.77958628</v>
+      </c>
+      <c r="G127" t="n">
+        <v>352259.1253433464</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="2" t="n">
+        <v>43549.83333333334</v>
+      </c>
+      <c r="B128" t="n">
+        <v>131.76</v>
+      </c>
+      <c r="C128" t="n">
+        <v>132.52</v>
+      </c>
+      <c r="D128" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>132.23</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3061.46728618</v>
+      </c>
+      <c r="G128" t="n">
+        <v>403350.5370402827</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="2" t="n">
+        <v>43549.875</v>
+      </c>
+      <c r="B129" t="n">
+        <v>132.07</v>
+      </c>
+      <c r="C129" t="n">
+        <v>132.07</v>
+      </c>
+      <c r="D129" t="n">
+        <v>131.38</v>
+      </c>
+      <c r="E129" t="n">
+        <v>131.68</v>
+      </c>
+      <c r="F129" t="n">
+        <v>239.80812034</v>
+      </c>
+      <c r="G129" t="n">
+        <v>31549.165969462</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="2" t="n">
+        <v>43549.91666666666</v>
+      </c>
+      <c r="B130" t="n">
+        <v>131.81</v>
+      </c>
+      <c r="C130" t="n">
+        <v>132.13</v>
+      </c>
+      <c r="D130" t="n">
+        <v>131.72</v>
+      </c>
+      <c r="E130" t="n">
+        <v>131.88</v>
+      </c>
+      <c r="F130" t="n">
+        <v>698.99745934</v>
+      </c>
+      <c r="G130" t="n">
+        <v>92190.7749150998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="2" t="n">
+        <v>43549.95833333334</v>
+      </c>
+      <c r="B131" t="n">
+        <v>131.84</v>
+      </c>
+      <c r="C131" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>131.83</v>
+      </c>
+      <c r="E131" t="n">
+        <v>133.07</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2224.56271751</v>
+      </c>
+      <c r="G131" t="n">
+        <v>296177.3629164113</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="2" t="n">
+        <v>43550</v>
+      </c>
+      <c r="B132" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>133.45</v>
+      </c>
+      <c r="D132" t="n">
+        <v>132.92</v>
+      </c>
+      <c r="E132" t="n">
+        <v>133.28</v>
+      </c>
+      <c r="F132" t="n">
+        <v>973.52776935</v>
+      </c>
+      <c r="G132" t="n">
+        <v>129587.3460864041</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="2" t="n">
+        <v>43550.04166666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>133.06</v>
+      </c>
+      <c r="C133" t="n">
+        <v>133.48</v>
+      </c>
+      <c r="D133" t="n">
+        <v>133.06</v>
+      </c>
+      <c r="E133" t="n">
+        <v>133.19</v>
+      </c>
+      <c r="F133" t="n">
+        <v>396.51384703</v>
+      </c>
+      <c r="G133" t="n">
+        <v>52817.7854791463</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="2" t="n">
+        <v>43550.08333333334</v>
+      </c>
+      <c r="B134" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>133.57</v>
+      </c>
+      <c r="D134" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>200.05102873</v>
+      </c>
+      <c r="G134" t="n">
+        <v>26689.6194542243</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="2" t="n">
+        <v>43550.125</v>
+      </c>
+      <c r="B135" t="n">
+        <v>133.34</v>
+      </c>
+      <c r="C135" t="n">
+        <v>133.61</v>
+      </c>
+      <c r="D135" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>133.61</v>
+      </c>
+      <c r="F135" t="n">
+        <v>670.23256607</v>
+      </c>
+      <c r="G135" t="n">
+        <v>89486.2961301943</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2" t="n">
+        <v>43550.16666666666</v>
+      </c>
+      <c r="B136" t="n">
+        <v>133.72</v>
+      </c>
+      <c r="C136" t="n">
+        <v>133.93</v>
+      </c>
+      <c r="D136" t="n">
+        <v>133.26</v>
+      </c>
+      <c r="E136" t="n">
+        <v>133.35</v>
+      </c>
+      <c r="F136" t="n">
+        <v>421.08502784</v>
+      </c>
+      <c r="G136" t="n">
+        <v>56300.2681700627</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2" t="n">
+        <v>43550.20833333334</v>
+      </c>
+      <c r="B137" t="n">
+        <v>133.27</v>
+      </c>
+      <c r="C137" t="n">
+        <v>133.38</v>
+      </c>
+      <c r="D137" t="n">
+        <v>133.16</v>
+      </c>
+      <c r="E137" t="n">
+        <v>133.33</v>
+      </c>
+      <c r="F137" t="n">
+        <v>216.42651776</v>
+      </c>
+      <c r="G137" t="n">
+        <v>28844.6558761126</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2" t="n">
+        <v>43550.25</v>
+      </c>
+      <c r="B138" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>133.39</v>
+      </c>
+      <c r="D138" t="n">
+        <v>133.14</v>
+      </c>
+      <c r="E138" t="n">
+        <v>133.27</v>
+      </c>
+      <c r="F138" t="n">
+        <v>88.50835172000001</v>
+      </c>
+      <c r="G138" t="n">
+        <v>11796.8327355175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2" t="n">
+        <v>43550.29166666666</v>
+      </c>
+      <c r="B139" t="n">
+        <v>133.19</v>
+      </c>
+      <c r="C139" t="n">
+        <v>133.23</v>
+      </c>
+      <c r="D139" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>132.88</v>
+      </c>
+      <c r="F139" t="n">
+        <v>272.41243042</v>
+      </c>
+      <c r="G139" t="n">
+        <v>36228.5078570697</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2" t="n">
+        <v>43550.33333333334</v>
+      </c>
+      <c r="B140" t="n">
+        <v>132.62</v>
+      </c>
+      <c r="C140" t="n">
+        <v>132.74</v>
+      </c>
+      <c r="D140" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>132.72</v>
+      </c>
+      <c r="F140" t="n">
+        <v>34.04464461</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4515.3879503674</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2" t="n">
+        <v>43550.375</v>
+      </c>
+      <c r="B141" t="n">
+        <v>132.66</v>
+      </c>
+      <c r="C141" t="n">
+        <v>133.33</v>
+      </c>
+      <c r="D141" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="E141" t="n">
+        <v>133.33</v>
+      </c>
+      <c r="F141" t="n">
+        <v>308.83533882</v>
+      </c>
+      <c r="G141" t="n">
+        <v>41080.2754380467</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2" t="n">
+        <v>43550.41666666666</v>
+      </c>
+      <c r="B142" t="n">
+        <v>133.28</v>
+      </c>
+      <c r="C142" t="n">
+        <v>133.31</v>
+      </c>
+      <c r="D142" t="n">
+        <v>132.94</v>
+      </c>
+      <c r="E142" t="n">
+        <v>133.03</v>
+      </c>
+      <c r="F142" t="n">
+        <v>242.18260103</v>
+      </c>
+      <c r="G142" t="n">
+        <v>32240.8993287039</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2" t="n">
+        <v>43550.45833333334</v>
+      </c>
+      <c r="B143" t="n">
+        <v>133.05</v>
+      </c>
+      <c r="C143" t="n">
+        <v>133.05</v>
+      </c>
+      <c r="D143" t="n">
+        <v>132.69</v>
+      </c>
+      <c r="E143" t="n">
+        <v>132.78</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3091.78915653</v>
+      </c>
+      <c r="G143" t="n">
+        <v>410844.8946549645</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2" t="n">
+        <v>43550.5</v>
+      </c>
+      <c r="B144" t="n">
+        <v>132.72</v>
+      </c>
+      <c r="C144" t="n">
+        <v>132.93</v>
+      </c>
+      <c r="D144" t="n">
+        <v>132.37</v>
+      </c>
+      <c r="E144" t="n">
+        <v>132.54</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3852.90962963</v>
+      </c>
+      <c r="G144" t="n">
+        <v>510823.5361551389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2" t="n">
+        <v>43550.54166666666</v>
+      </c>
+      <c r="B145" t="n">
+        <v>132.58</v>
+      </c>
+      <c r="C145" t="n">
+        <v>132.71</v>
+      </c>
+      <c r="D145" t="n">
+        <v>131.87</v>
+      </c>
+      <c r="E145" t="n">
+        <v>132.04</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4149.53356029</v>
+      </c>
+      <c r="G145" t="n">
+        <v>548776.4705733801</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2" t="n">
+        <v>43550.58333333334</v>
+      </c>
+      <c r="B146" t="n">
+        <v>132.01</v>
+      </c>
+      <c r="C146" t="n">
+        <v>132.37</v>
+      </c>
+      <c r="D146" t="n">
+        <v>131.46</v>
+      </c>
+      <c r="E146" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4999.37574706</v>
+      </c>
+      <c r="G146" t="n">
+        <v>658780.7134916086</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2" t="n">
+        <v>43550.625</v>
+      </c>
+      <c r="B147" t="n">
+        <v>131.53</v>
+      </c>
+      <c r="C147" t="n">
+        <v>132.87</v>
+      </c>
+      <c r="D147" t="n">
+        <v>131.52</v>
+      </c>
+      <c r="E147" t="n">
+        <v>132.57</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4488.7863636</v>
+      </c>
+      <c r="G147" t="n">
+        <v>593539.1226654162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2" t="n">
+        <v>43550.66666666666</v>
+      </c>
+      <c r="B148" t="n">
+        <v>132.57</v>
+      </c>
+      <c r="C148" t="n">
+        <v>132.92</v>
+      </c>
+      <c r="D148" t="n">
+        <v>132.46</v>
+      </c>
+      <c r="E148" t="n">
+        <v>132.83</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1344.55534054</v>
+      </c>
+      <c r="G148" t="n">
+        <v>178290.6252463269</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2" t="n">
+        <v>43550.70833333334</v>
+      </c>
+      <c r="B149" t="n">
+        <v>132.87</v>
+      </c>
+      <c r="C149" t="n">
+        <v>133.07</v>
+      </c>
+      <c r="D149" t="n">
+        <v>132.42</v>
+      </c>
+      <c r="E149" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>582.37672585</v>
+      </c>
+      <c r="G149" t="n">
+        <v>77240.73003185879</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2" t="n">
+        <v>43550.75</v>
+      </c>
+      <c r="B150" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>132.85</v>
+      </c>
+      <c r="D150" t="n">
+        <v>132.38</v>
+      </c>
+      <c r="E150" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="F150" t="n">
+        <v>267.91907932</v>
+      </c>
+      <c r="G150" t="n">
+        <v>35503.9845130598</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2" t="n">
+        <v>43550.79166666666</v>
+      </c>
+      <c r="B151" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="C151" t="n">
+        <v>133.07</v>
+      </c>
+      <c r="D151" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>133.06</v>
+      </c>
+      <c r="F151" t="n">
+        <v>353.08548858</v>
+      </c>
+      <c r="G151" t="n">
+        <v>46935.7505727111</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2" t="n">
+        <v>43550.83333333334</v>
+      </c>
+      <c r="B152" t="n">
+        <v>133.15</v>
+      </c>
+      <c r="C152" t="n">
+        <v>133.77</v>
+      </c>
+      <c r="D152" t="n">
+        <v>132.92</v>
+      </c>
+      <c r="E152" t="n">
+        <v>133.42</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2108.50327982</v>
+      </c>
+      <c r="G152" t="n">
+        <v>281117.2657141812</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2" t="n">
+        <v>43550.875</v>
+      </c>
+      <c r="B153" t="n">
+        <v>133.21</v>
+      </c>
+      <c r="C153" t="n">
+        <v>133.61</v>
+      </c>
+      <c r="D153" t="n">
+        <v>133.12</v>
+      </c>
+      <c r="E153" t="n">
+        <v>133.19</v>
+      </c>
+      <c r="F153" t="n">
+        <v>971.42304613</v>
+      </c>
+      <c r="G153" t="n">
+        <v>129536.9429079408</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2" t="n">
+        <v>43550.91666666666</v>
+      </c>
+      <c r="B154" t="n">
+        <v>133.08</v>
+      </c>
+      <c r="C154" t="n">
+        <v>133.36</v>
+      </c>
+      <c r="D154" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="E154" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="F154" t="n">
+        <v>533.71361229</v>
+      </c>
+      <c r="G154" t="n">
+        <v>71049.5548090949</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2" t="n">
+        <v>43550.95833333334</v>
+      </c>
+      <c r="B155" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="C155" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>132.64</v>
+      </c>
+      <c r="E155" t="n">
+        <v>133.08</v>
+      </c>
+      <c r="F155" t="n">
+        <v>108.91157081</v>
+      </c>
+      <c r="G155" t="n">
+        <v>14479.4371217823</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2" t="n">
+        <v>43551</v>
+      </c>
+      <c r="B156" t="n">
+        <v>133.08</v>
+      </c>
+      <c r="C156" t="n">
+        <v>133.39</v>
+      </c>
+      <c r="D156" t="n">
+        <v>133.04</v>
+      </c>
+      <c r="E156" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>429.52967391</v>
+      </c>
+      <c r="G156" t="n">
+        <v>57234.2875780436</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2" t="n">
+        <v>43551.04166666666</v>
+      </c>
+      <c r="B157" t="n">
+        <v>133.12</v>
+      </c>
+      <c r="C157" t="n">
+        <v>134.77</v>
+      </c>
+      <c r="D157" t="n">
+        <v>132.98</v>
+      </c>
+      <c r="E157" t="n">
+        <v>134.66</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1839.90253304</v>
+      </c>
+      <c r="G157" t="n">
+        <v>246273.1116329545</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2" t="n">
+        <v>43551.08333333334</v>
+      </c>
+      <c r="B158" t="n">
+        <v>134.73</v>
+      </c>
+      <c r="C158" t="n">
+        <v>137.18</v>
+      </c>
+      <c r="D158" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>136.25</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4365.81346919</v>
+      </c>
+      <c r="G158" t="n">
+        <v>593735.2526039353</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2" t="n">
+        <v>43551.125</v>
+      </c>
+      <c r="B159" t="n">
+        <v>136.25</v>
+      </c>
+      <c r="C159" t="n">
+        <v>136.53</v>
+      </c>
+      <c r="D159" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>136.33</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1038.22404113</v>
+      </c>
+      <c r="G159" t="n">
+        <v>141363.1077150626</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2" t="n">
+        <v>43551.16666666666</v>
+      </c>
+      <c r="B160" t="n">
+        <v>136.36</v>
+      </c>
+      <c r="C160" t="n">
+        <v>137</v>
+      </c>
+      <c r="D160" t="n">
+        <v>136.04</v>
+      </c>
+      <c r="E160" t="n">
+        <v>137</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1394.92482002</v>
+      </c>
+      <c r="G160" t="n">
+        <v>190570.5318486731</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2" t="n">
+        <v>43551.20833333334</v>
+      </c>
+      <c r="B161" t="n">
+        <v>136.41</v>
+      </c>
+      <c r="C161" t="n">
+        <v>137.37</v>
+      </c>
+      <c r="D161" t="n">
+        <v>136.27</v>
+      </c>
+      <c r="E161" t="n">
+        <v>136.44</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1791.4688191</v>
+      </c>
+      <c r="G161" t="n">
+        <v>245163.2523010598</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2" t="n">
+        <v>43551.25</v>
+      </c>
+      <c r="B162" t="n">
+        <v>136.44</v>
+      </c>
+      <c r="C162" t="n">
+        <v>137.73</v>
+      </c>
+      <c r="D162" t="n">
+        <v>136.34</v>
+      </c>
+      <c r="E162" t="n">
+        <v>137.48</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1203.52495791</v>
+      </c>
+      <c r="G162" t="n">
+        <v>165179.3324880991</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2" t="n">
+        <v>43551.29166666666</v>
+      </c>
+      <c r="B163" t="n">
+        <v>137.47</v>
+      </c>
+      <c r="C163" t="n">
+        <v>137.47</v>
+      </c>
+      <c r="D163" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="F163" t="n">
+        <v>503.8696442</v>
+      </c>
+      <c r="G163" t="n">
+        <v>68955.68230807751</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2" t="n">
+        <v>43551.33333333334</v>
+      </c>
+      <c r="B164" t="n">
+        <v>136.51</v>
+      </c>
+      <c r="C164" t="n">
+        <v>137.05</v>
+      </c>
+      <c r="D164" t="n">
+        <v>136.51</v>
+      </c>
+      <c r="E164" t="n">
+        <v>136.83</v>
+      </c>
+      <c r="F164" t="n">
+        <v>317.62483462</v>
+      </c>
+      <c r="G164" t="n">
+        <v>43454.5729042249</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2" t="n">
+        <v>43551.375</v>
+      </c>
+      <c r="B165" t="n">
+        <v>136.72</v>
+      </c>
+      <c r="C165" t="n">
+        <v>136.99</v>
+      </c>
+      <c r="D165" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>136.89</v>
+      </c>
+      <c r="F165" t="n">
+        <v>973.78436411</v>
+      </c>
+      <c r="G165" t="n">
+        <v>133087.1287597282</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2" t="n">
+        <v>43551.41666666666</v>
+      </c>
+      <c r="B166" t="n">
+        <v>136.86</v>
+      </c>
+      <c r="C166" t="n">
+        <v>137.26</v>
+      </c>
+      <c r="D166" t="n">
+        <v>136.66</v>
+      </c>
+      <c r="E166" t="n">
+        <v>136.97</v>
+      </c>
+      <c r="F166" t="n">
+        <v>449.98903621</v>
+      </c>
+      <c r="G166" t="n">
+        <v>61623.297988328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2" t="n">
+        <v>43551.45833333334</v>
+      </c>
+      <c r="B167" t="n">
+        <v>136.89</v>
+      </c>
+      <c r="C167" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="D167" t="n">
+        <v>136.82</v>
+      </c>
+      <c r="E167" t="n">
+        <v>138.08</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3327.41226305</v>
+      </c>
+      <c r="G167" t="n">
+        <v>458339.9936806613</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2" t="n">
+        <v>43551.5</v>
+      </c>
+      <c r="B168" t="n">
+        <v>138.17</v>
+      </c>
+      <c r="C168" t="n">
+        <v>138.63</v>
+      </c>
+      <c r="D168" t="n">
+        <v>137.62</v>
+      </c>
+      <c r="E168" t="n">
+        <v>138.28</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1916.28910852</v>
+      </c>
+      <c r="G168" t="n">
+        <v>264780.8775876342</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2" t="n">
+        <v>43551.54166666666</v>
+      </c>
+      <c r="B169" t="n">
+        <v>138.31</v>
+      </c>
+      <c r="C169" t="n">
+        <v>138.31</v>
+      </c>
+      <c r="D169" t="n">
+        <v>137.38</v>
+      </c>
+      <c r="E169" t="n">
+        <v>137.71</v>
+      </c>
+      <c r="F169" t="n">
+        <v>830.56259788</v>
+      </c>
+      <c r="G169" t="n">
+        <v>114531.9650065897</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2" t="n">
+        <v>43551.58333333334</v>
+      </c>
+      <c r="B170" t="n">
+        <v>137.59</v>
+      </c>
+      <c r="C170" t="n">
+        <v>137.95</v>
+      </c>
+      <c r="D170" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>137.82</v>
+      </c>
+      <c r="F170" t="n">
+        <v>866.9632752</v>
+      </c>
+      <c r="G170" t="n">
+        <v>119419.4547914082</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2" t="n">
+        <v>43551.625</v>
+      </c>
+      <c r="B171" t="n">
+        <v>137.74</v>
+      </c>
+      <c r="C171" t="n">
+        <v>138.03</v>
+      </c>
+      <c r="D171" t="n">
+        <v>137.52</v>
+      </c>
+      <c r="E171" t="n">
+        <v>137.57</v>
+      </c>
+      <c r="F171" t="n">
+        <v>432.99609915</v>
+      </c>
+      <c r="G171" t="n">
+        <v>59626.2222910053</v>
       </c>
     </row>
   </sheetData>
